--- a/data/U_Pb/Northbrae_Burdell_LA_ICP_MS_data.xlsx
+++ b/data/U_Pb/Northbrae_Burdell_LA_ICP_MS_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/unimos/0000_Github/Northbrae_Volcanics/data/U_Pb/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Northbrae_Volcanics\data\U_Pb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC44929-B696-5B48-9CBD-D7F798B8E084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA2F503-C321-4A94-826E-1FAADDEA41D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3520" windowWidth="50340" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1 Sample data" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="305">
   <si>
     <t>Composition</t>
   </si>
@@ -1433,7 +1433,7 @@
     <numFmt numFmtId="172" formatCode="0.0000000000000000"/>
     <numFmt numFmtId="173" formatCode="0.000000000000000000"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -1616,6 +1616,12 @@
     <font>
       <sz val="10"/>
       <color theme="8" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1890,7 +1896,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2198,6 +2204,7 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2486,45 +2493,45 @@
   <dimension ref="A1:EW440"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="AX8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="BS69" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A8" sqref="A8:XFD300"/>
       <selection pane="topRight" activeCell="A8" sqref="A8:XFD300"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD300"/>
-      <selection pane="bottomRight" activeCell="BS7" sqref="BS7"/>
+      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="16"/>
-    <col min="2" max="2" width="15.33203125" style="48" customWidth="1"/>
-    <col min="3" max="4" width="4.83203125" style="48" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="16"/>
+    <col min="2" max="2" width="15.375" style="48" customWidth="1"/>
+    <col min="3" max="4" width="4.875" style="48" customWidth="1"/>
     <col min="5" max="5" width="6" style="48" customWidth="1"/>
-    <col min="6" max="6" width="5.83203125" style="49" customWidth="1"/>
-    <col min="7" max="7" width="6.83203125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="6.83203125" style="50" customWidth="1"/>
-    <col min="9" max="9" width="5.33203125" style="50" customWidth="1"/>
-    <col min="10" max="10" width="8.1640625" style="52" customWidth="1"/>
-    <col min="11" max="11" width="5.6640625" style="51" customWidth="1"/>
+    <col min="6" max="6" width="5.875" style="49" customWidth="1"/>
+    <col min="7" max="7" width="6.875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="6.875" style="50" customWidth="1"/>
+    <col min="9" max="9" width="5.375" style="50" customWidth="1"/>
+    <col min="10" max="10" width="8.125" style="52" customWidth="1"/>
+    <col min="11" max="11" width="5.625" style="51" customWidth="1"/>
     <col min="12" max="12" width="26" style="53" customWidth="1"/>
-    <col min="13" max="13" width="23.6640625" style="51" customWidth="1"/>
-    <col min="14" max="14" width="23.1640625" style="52" customWidth="1"/>
-    <col min="15" max="15" width="25.6640625" style="51" customWidth="1"/>
+    <col min="13" max="13" width="23.625" style="51" customWidth="1"/>
+    <col min="14" max="14" width="23.125" style="52" customWidth="1"/>
+    <col min="15" max="15" width="25.625" style="51" customWidth="1"/>
     <col min="16" max="16" width="25" style="49" customWidth="1"/>
-    <col min="17" max="17" width="8.1640625" style="49" customWidth="1"/>
-    <col min="18" max="18" width="5.6640625" style="51" customWidth="1"/>
-    <col min="19" max="19" width="8.1640625" style="52" customWidth="1"/>
-    <col min="20" max="20" width="5.6640625" style="51" customWidth="1"/>
-    <col min="21" max="23" width="7.1640625" style="48" customWidth="1"/>
-    <col min="24" max="32" width="7.1640625" style="8" customWidth="1"/>
+    <col min="17" max="17" width="8.125" style="49" customWidth="1"/>
+    <col min="18" max="18" width="5.625" style="51" customWidth="1"/>
+    <col min="19" max="19" width="8.125" style="52" customWidth="1"/>
+    <col min="20" max="20" width="5.625" style="51" customWidth="1"/>
+    <col min="21" max="23" width="7.125" style="48" customWidth="1"/>
+    <col min="24" max="32" width="7.125" style="8" customWidth="1"/>
     <col min="33" max="33" width="8" style="54" customWidth="1"/>
-    <col min="34" max="34" width="6.6640625" style="54" customWidth="1"/>
-    <col min="35" max="56" width="6.6640625" style="50" customWidth="1"/>
-    <col min="57" max="70" width="10.6640625" style="16"/>
-    <col min="71" max="71" width="22.6640625" style="16" customWidth="1"/>
-    <col min="72" max="16384" width="10.6640625" style="16"/>
+    <col min="34" max="34" width="6.625" style="54" customWidth="1"/>
+    <col min="35" max="56" width="6.625" style="50" customWidth="1"/>
+    <col min="57" max="70" width="10.625" style="16"/>
+    <col min="71" max="71" width="22.625" style="16" customWidth="1"/>
+    <col min="72" max="16384" width="10.625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:152" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:152" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>248</v>
       </c>
@@ -2599,7 +2606,7 @@
       <c r="BS1" s="2"/>
       <c r="BT1" s="2"/>
     </row>
-    <row r="2" spans="1:152" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:152" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="9"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -2672,7 +2679,7 @@
       <c r="BS2" s="15"/>
       <c r="BT2" s="15"/>
     </row>
-    <row r="3" spans="1:152" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:152" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -2753,7 +2760,7 @@
       <c r="BS3" s="21"/>
       <c r="BT3" s="21"/>
     </row>
-    <row r="4" spans="1:152" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:152" x14ac:dyDescent="0.2">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>4</v>
@@ -2877,7 +2884,7 @@
       <c r="BS4" s="15"/>
       <c r="BT4" s="15"/>
     </row>
-    <row r="5" spans="1:152" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>266</v>
       </c>
@@ -3095,7 +3102,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="6" spans="1:152" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:152" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="33"/>
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
@@ -3169,7 +3176,7 @@
       <c r="BS6" s="41"/>
       <c r="BT6" s="15"/>
     </row>
-    <row r="7" spans="1:152" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>266</v>
       </c>
@@ -3387,7 +3394,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="8" spans="1:152" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>300</v>
       </c>
@@ -3603,9 +3610,11 @@
       <c r="BS8" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="BT8"/>
-    </row>
-    <row r="9" spans="1:152" x14ac:dyDescent="0.15">
+      <c r="BT8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>300</v>
       </c>
@@ -3821,9 +3830,11 @@
       <c r="BS9" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="BT9"/>
-    </row>
-    <row r="10" spans="1:152" s="125" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="BT9" s="15" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:152" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>300</v>
       </c>
@@ -4039,9 +4050,11 @@
       <c r="BS10" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="BT10"/>
-    </row>
-    <row r="11" spans="1:152" s="125" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="BT10" s="151" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:152" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>300</v>
       </c>
@@ -4257,9 +4270,11 @@
       <c r="BS11" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="BT11"/>
-    </row>
-    <row r="12" spans="1:152" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="BT11" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:152" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>300</v>
       </c>
@@ -4473,7 +4488,9 @@
       <c r="BS12" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="BT12"/>
+      <c r="BT12" t="s">
+        <v>302</v>
+      </c>
       <c r="BU12" s="16"/>
       <c r="BV12" s="16"/>
       <c r="BW12" s="16"/>
@@ -4555,7 +4572,7 @@
       <c r="EU12" s="16"/>
       <c r="EV12" s="16"/>
     </row>
-    <row r="13" spans="1:152" s="125" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:152" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>300</v>
       </c>
@@ -4771,9 +4788,11 @@
       <c r="BS13" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="BT13"/>
-    </row>
-    <row r="14" spans="1:152" s="125" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="BT13" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:152" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>300</v>
       </c>
@@ -4989,9 +5008,11 @@
       <c r="BS14" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="BT14"/>
-    </row>
-    <row r="15" spans="1:152" x14ac:dyDescent="0.15">
+      <c r="BT14" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>300</v>
       </c>
@@ -5207,9 +5228,11 @@
       <c r="BS15" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="BT15"/>
-    </row>
-    <row r="16" spans="1:152" s="125" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="BT15" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:152" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>300</v>
       </c>
@@ -5425,9 +5448,11 @@
       <c r="BS16" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="BT16"/>
-    </row>
-    <row r="17" spans="1:153" s="127" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="BT16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:153" s="127" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>300</v>
       </c>
@@ -5569,7 +5594,9 @@
       <c r="BS17" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="BT17"/>
+      <c r="BT17" t="s">
+        <v>303</v>
+      </c>
       <c r="BU17" s="126"/>
       <c r="BV17" s="126"/>
       <c r="BW17" s="126"/>
@@ -5651,7 +5678,7 @@
       <c r="EU17" s="126"/>
       <c r="EV17" s="126"/>
     </row>
-    <row r="18" spans="1:153" s="47" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:153" s="47" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>300</v>
       </c>
@@ -5867,7 +5894,9 @@
       <c r="BS18" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="BT18"/>
+      <c r="BT18" t="s">
+        <v>302</v>
+      </c>
       <c r="BU18" s="16"/>
       <c r="BV18" s="16"/>
       <c r="BW18" s="16"/>
@@ -5949,7 +5978,7 @@
       <c r="EU18" s="16"/>
       <c r="EV18" s="16"/>
     </row>
-    <row r="19" spans="1:153" s="43" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:153" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>300</v>
       </c>
@@ -6159,7 +6188,9 @@
       <c r="BS19" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="BT19"/>
+      <c r="BT19" t="s">
+        <v>303</v>
+      </c>
       <c r="BU19" s="16"/>
       <c r="BV19" s="16"/>
       <c r="BW19" s="16"/>
@@ -6241,7 +6272,7 @@
       <c r="EU19" s="16"/>
       <c r="EV19" s="16"/>
     </row>
-    <row r="20" spans="1:153" s="43" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:153" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>300</v>
       </c>
@@ -6457,7 +6488,9 @@
       <c r="BS20" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="BT20"/>
+      <c r="BT20" t="s">
+        <v>302</v>
+      </c>
       <c r="BU20" s="16"/>
       <c r="BV20" s="16"/>
       <c r="BW20" s="16"/>
@@ -6539,7 +6572,7 @@
       <c r="EU20" s="16"/>
       <c r="EV20" s="16"/>
     </row>
-    <row r="21" spans="1:153" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>300</v>
       </c>
@@ -6753,9 +6786,11 @@
       <c r="BS21" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="BT21"/>
-    </row>
-    <row r="22" spans="1:153" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="BT21" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:153" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>300</v>
       </c>
@@ -6967,7 +7002,9 @@
       <c r="BS22" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="BT22"/>
+      <c r="BT22" t="s">
+        <v>302</v>
+      </c>
       <c r="BU22" s="16"/>
       <c r="BV22" s="16"/>
       <c r="BW22" s="16"/>
@@ -7049,7 +7086,7 @@
       <c r="EU22" s="16"/>
       <c r="EV22" s="16"/>
     </row>
-    <row r="23" spans="1:153" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>300</v>
       </c>
@@ -7263,9 +7300,11 @@
       <c r="BS23" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="BT23"/>
-    </row>
-    <row r="24" spans="1:153" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="BT23" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="24" spans="1:153" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>300</v>
       </c>
@@ -7481,7 +7520,9 @@
       <c r="BS24" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="BT24"/>
+      <c r="BT24" t="s">
+        <v>302</v>
+      </c>
       <c r="BU24" s="16"/>
       <c r="BV24" s="16"/>
       <c r="BW24" s="16"/>
@@ -7564,7 +7605,7 @@
       <c r="EV24" s="16"/>
       <c r="EW24" s="16"/>
     </row>
-    <row r="25" spans="1:153" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>300</v>
       </c>
@@ -7780,9 +7821,11 @@
       <c r="BS25" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="BT25"/>
-    </row>
-    <row r="26" spans="1:153" x14ac:dyDescent="0.15">
+      <c r="BT25" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="26" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>300</v>
       </c>
@@ -8083,7 +8126,7 @@
       <c r="EV26" s="55"/>
       <c r="EW26" s="55"/>
     </row>
-    <row r="27" spans="1:153" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>300</v>
       </c>
@@ -8384,7 +8427,7 @@
       <c r="EV27" s="55"/>
       <c r="EW27" s="55"/>
     </row>
-    <row r="28" spans="1:153" s="46" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:153" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>300</v>
       </c>
@@ -8685,7 +8728,7 @@
       <c r="EV28" s="55"/>
       <c r="EW28" s="55"/>
     </row>
-    <row r="29" spans="1:153" s="46" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:153" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>300</v>
       </c>
@@ -8986,7 +9029,7 @@
       <c r="EV29" s="55"/>
       <c r="EW29" s="55"/>
     </row>
-    <row r="30" spans="1:153" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>300</v>
       </c>
@@ -9287,7 +9330,7 @@
       <c r="EV30" s="55"/>
       <c r="EW30" s="65"/>
     </row>
-    <row r="31" spans="1:153" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>300</v>
       </c>
@@ -9588,7 +9631,7 @@
       <c r="EV31" s="55"/>
       <c r="EW31" s="55"/>
     </row>
-    <row r="32" spans="1:153" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>300</v>
       </c>
@@ -9889,7 +9932,7 @@
       <c r="EV32" s="55"/>
       <c r="EW32" s="55"/>
     </row>
-    <row r="33" spans="1:153" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>300</v>
       </c>
@@ -10190,7 +10233,7 @@
       <c r="EV33" s="55"/>
       <c r="EW33" s="55"/>
     </row>
-    <row r="34" spans="1:153" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>300</v>
       </c>
@@ -10491,7 +10534,7 @@
       <c r="EV34" s="55"/>
       <c r="EW34" s="65"/>
     </row>
-    <row r="35" spans="1:153" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>300</v>
       </c>
@@ -10792,7 +10835,7 @@
       <c r="EV35" s="55"/>
       <c r="EW35" s="65"/>
     </row>
-    <row r="36" spans="1:153" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>300</v>
       </c>
@@ -11093,7 +11136,7 @@
       <c r="EV36" s="55"/>
       <c r="EW36" s="55"/>
     </row>
-    <row r="37" spans="1:153" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:153" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>300</v>
       </c>
@@ -11394,7 +11437,7 @@
       <c r="EV37" s="55"/>
       <c r="EW37" s="65"/>
     </row>
-    <row r="38" spans="1:153" s="55" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:153" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>300</v>
       </c>
@@ -11614,7 +11657,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="39" spans="1:153" s="65" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:153" s="65" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>300</v>
       </c>
@@ -11915,7 +11958,7 @@
       <c r="EV39" s="55"/>
       <c r="EW39" s="55"/>
     </row>
-    <row r="40" spans="1:153" s="55" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:153" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>300</v>
       </c>
@@ -12136,7 +12179,7 @@
       </c>
       <c r="EW40" s="65"/>
     </row>
-    <row r="41" spans="1:153" s="55" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:153" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>300</v>
       </c>
@@ -12356,7 +12399,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="42" spans="1:153" s="55" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:153" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>300</v>
       </c>
@@ -12572,7 +12615,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="43" spans="1:153" s="55" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:153" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>300</v>
       </c>
@@ -12793,7 +12836,7 @@
       </c>
       <c r="EW43" s="65"/>
     </row>
-    <row r="44" spans="1:153" s="65" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:153" s="65" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>300</v>
       </c>
@@ -13094,7 +13137,7 @@
       <c r="EV44" s="55"/>
       <c r="EW44" s="55"/>
     </row>
-    <row r="45" spans="1:153" s="55" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:153" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>300</v>
       </c>
@@ -13314,7 +13357,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="46" spans="1:153" s="55" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:153" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>300</v>
       </c>
@@ -13534,7 +13577,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="47" spans="1:153" s="65" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:153" s="65" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>301</v>
       </c>
@@ -13750,7 +13793,9 @@
       <c r="BS47" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="BT47"/>
+      <c r="BT47" t="s">
+        <v>302</v>
+      </c>
       <c r="BU47" s="16"/>
       <c r="BV47" s="16"/>
       <c r="BW47" s="16"/>
@@ -13833,7 +13878,7 @@
       <c r="EV47" s="16"/>
       <c r="EW47" s="46"/>
     </row>
-    <row r="48" spans="1:153" s="55" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:153" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>301</v>
       </c>
@@ -14049,7 +14094,9 @@
       <c r="BS48" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="BT48"/>
+      <c r="BT48" t="s">
+        <v>302</v>
+      </c>
       <c r="BU48" s="16"/>
       <c r="BV48" s="16"/>
       <c r="BW48" s="16"/>
@@ -14132,7 +14179,7 @@
       <c r="EV48" s="16"/>
       <c r="EW48" s="46"/>
     </row>
-    <row r="49" spans="1:153" s="65" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:153" s="65" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>301</v>
       </c>
@@ -14348,7 +14395,9 @@
       <c r="BS49" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="BT49"/>
+      <c r="BT49" t="s">
+        <v>303</v>
+      </c>
       <c r="BU49" s="16"/>
       <c r="BV49" s="16"/>
       <c r="BW49" s="16"/>
@@ -14431,7 +14480,7 @@
       <c r="EV49" s="16"/>
       <c r="EW49" s="16"/>
     </row>
-    <row r="50" spans="1:153" s="55" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:153" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>301</v>
       </c>
@@ -14647,7 +14696,9 @@
       <c r="BS50" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="BT50"/>
+      <c r="BT50" t="s">
+        <v>302</v>
+      </c>
       <c r="BU50" s="16"/>
       <c r="BV50" s="16"/>
       <c r="BW50" s="16"/>
@@ -14730,7 +14781,7 @@
       <c r="EV50" s="16"/>
       <c r="EW50" s="16"/>
     </row>
-    <row r="51" spans="1:153" s="55" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:153" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>301</v>
       </c>
@@ -14872,7 +14923,9 @@
       <c r="BS51" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="BT51"/>
+      <c r="BT51" t="s">
+        <v>302</v>
+      </c>
       <c r="BU51" s="16"/>
       <c r="BV51" s="16"/>
       <c r="BW51" s="16"/>
@@ -14955,7 +15008,7 @@
       <c r="EV51" s="16"/>
       <c r="EW51" s="16"/>
     </row>
-    <row r="52" spans="1:153" s="65" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:153" s="65" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>301</v>
       </c>
@@ -15169,7 +15222,9 @@
       <c r="BS52" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="BT52"/>
+      <c r="BT52" t="s">
+        <v>302</v>
+      </c>
       <c r="BU52" s="16"/>
       <c r="BV52" s="16"/>
       <c r="BW52" s="16"/>
@@ -15252,7 +15307,7 @@
       <c r="EV52" s="16"/>
       <c r="EW52" s="16"/>
     </row>
-    <row r="53" spans="1:153" s="65" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:153" s="65" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>301</v>
       </c>
@@ -15466,7 +15521,9 @@
       <c r="BS53" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="BT53"/>
+      <c r="BT53" t="s">
+        <v>302</v>
+      </c>
       <c r="BU53" s="16"/>
       <c r="BV53" s="16"/>
       <c r="BW53" s="16"/>
@@ -15549,7 +15606,7 @@
       <c r="EV53" s="16"/>
       <c r="EW53" s="16"/>
     </row>
-    <row r="54" spans="1:153" s="55" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:153" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>301</v>
       </c>
@@ -15691,7 +15748,9 @@
       <c r="BS54" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="BT54"/>
+      <c r="BT54" t="s">
+        <v>302</v>
+      </c>
       <c r="BU54" s="16"/>
       <c r="BV54" s="16"/>
       <c r="BW54" s="16"/>
@@ -15774,7 +15833,7 @@
       <c r="EV54" s="16"/>
       <c r="EW54" s="16"/>
     </row>
-    <row r="55" spans="1:153" s="55" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:153" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>301</v>
       </c>
@@ -15990,7 +16049,9 @@
       <c r="BS55" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="BT55"/>
+      <c r="BT55" t="s">
+        <v>302</v>
+      </c>
       <c r="BU55" s="16"/>
       <c r="BV55" s="16"/>
       <c r="BW55" s="16"/>
@@ -16073,7 +16134,7 @@
       <c r="EV55" s="16"/>
       <c r="EW55" s="16"/>
     </row>
-    <row r="56" spans="1:153" s="55" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:153" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>301</v>
       </c>
@@ -16289,7 +16350,9 @@
       <c r="BS56" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="BT56"/>
+      <c r="BT56" t="s">
+        <v>303</v>
+      </c>
       <c r="BU56" s="16"/>
       <c r="BV56" s="16"/>
       <c r="BW56" s="16"/>
@@ -16372,7 +16435,7 @@
       <c r="EV56" s="16"/>
       <c r="EW56" s="16"/>
     </row>
-    <row r="57" spans="1:153" s="55" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:153" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>301</v>
       </c>
@@ -16592,7 +16655,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="58" spans="1:153" s="55" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:153" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>301</v>
       </c>
@@ -16812,7 +16875,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="59" spans="1:153" s="55" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:153" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>301</v>
       </c>
@@ -17032,7 +17095,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="60" spans="1:153" s="55" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:153" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>301</v>
       </c>
@@ -17253,7 +17316,7 @@
       </c>
       <c r="EW60" s="65"/>
     </row>
-    <row r="61" spans="1:153" s="55" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:153" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>301</v>
       </c>
@@ -17473,7 +17536,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="62" spans="1:153" s="55" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:153" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>301</v>
       </c>
@@ -17619,7 +17682,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="63" spans="1:153" s="55" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:153" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>301</v>
       </c>
@@ -17840,7 +17903,7 @@
       </c>
       <c r="EW63" s="65"/>
     </row>
-    <row r="64" spans="1:153" s="55" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:153" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>301</v>
       </c>
@@ -18060,7 +18123,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="65" spans="1:153" s="55" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:153" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>301</v>
       </c>
@@ -18280,7 +18343,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="66" spans="1:153" s="55" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:153" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>301</v>
       </c>
@@ -18579,7 +18642,7 @@
       <c r="EV66" s="66"/>
       <c r="EW66" s="66"/>
     </row>
-    <row r="67" spans="1:153" s="55" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:153" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>301</v>
       </c>
@@ -18878,7 +18941,7 @@
       <c r="EV67" s="66"/>
       <c r="EW67" s="66"/>
     </row>
-    <row r="68" spans="1:153" s="76" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:153" s="76" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>301</v>
       </c>
@@ -19173,7 +19236,7 @@
       <c r="EV68" s="66"/>
       <c r="EW68" s="66"/>
     </row>
-    <row r="69" spans="1:153" s="66" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:153" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>301</v>
       </c>
@@ -19319,7 +19382,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="70" spans="1:153" s="66" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:153" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>301</v>
       </c>
@@ -19539,7 +19602,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="71" spans="1:153" s="66" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:153" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>301</v>
       </c>
@@ -19685,7 +19748,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="72" spans="1:153" s="76" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:153" s="76" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>301</v>
       </c>
@@ -19986,7 +20049,7 @@
       <c r="EV72" s="66"/>
       <c r="EW72" s="66"/>
     </row>
-    <row r="73" spans="1:153" s="66" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:153" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>301</v>
       </c>
@@ -20206,7 +20269,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="74" spans="1:153" s="66" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:153" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>301</v>
       </c>
@@ -20353,7 +20416,7 @@
       </c>
       <c r="EW74" s="76"/>
     </row>
-    <row r="75" spans="1:153" s="66" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:153" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>301</v>
       </c>
@@ -20573,7 +20636,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="76" spans="1:153" s="66" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:153" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>301</v>
       </c>
@@ -20719,7 +20782,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="77" spans="1:153" s="66" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:153" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>301</v>
       </c>
@@ -20939,7 +21002,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="78" spans="1:153" s="66" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:153" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>301</v>
       </c>
@@ -21160,7 +21223,7 @@
       </c>
       <c r="EW78" s="76"/>
     </row>
-    <row r="79" spans="1:153" s="66" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:153" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>301</v>
       </c>
@@ -21306,7 +21369,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="80" spans="1:153" s="66" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:153" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>301</v>
       </c>
@@ -21452,7 +21515,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="81" spans="1:72" s="66" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:72" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>301</v>
       </c>
@@ -21672,7 +21735,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="82" spans="1:72" s="55" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:72" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C82" s="56"/>
       <c r="D82" s="56"/>
       <c r="E82" s="58"/>
@@ -21740,7 +21803,7 @@
       <c r="BQ82" s="42"/>
       <c r="BR82" s="42"/>
     </row>
-    <row r="83" spans="1:72" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A83" s="21" t="s">
         <v>212</v>
       </c>
@@ -21816,7 +21879,7 @@
       <c r="BS83" s="15"/>
       <c r="BT83" s="15"/>
     </row>
-    <row r="84" spans="1:72" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A84" s="66" t="s">
         <v>125</v>
       </c>
@@ -21880,7 +21943,7 @@
       <c r="BS84" s="15"/>
       <c r="BT84" s="15"/>
     </row>
-    <row r="85" spans="1:72" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A85" s="15" t="s">
         <v>126</v>
       </c>
@@ -21944,7 +22007,7 @@
       <c r="BS85" s="15"/>
       <c r="BT85" s="15"/>
     </row>
-    <row r="86" spans="1:72" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A86" s="55" t="s">
         <v>124</v>
       </c>
@@ -22008,7 +22071,7 @@
       <c r="BS86" s="15"/>
       <c r="BT86" s="15"/>
     </row>
-    <row r="87" spans="1:72" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:72" x14ac:dyDescent="0.2">
       <c r="B87" s="15"/>
       <c r="C87" s="12"/>
       <c r="D87" s="12"/>
@@ -22069,7 +22132,7 @@
       <c r="BS87" s="15"/>
       <c r="BT87" s="15"/>
     </row>
-    <row r="88" spans="1:72" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:72" x14ac:dyDescent="0.2">
       <c r="B88" s="15"/>
       <c r="C88" s="12"/>
       <c r="D88" s="12"/>
@@ -22130,7 +22193,7 @@
       <c r="BS88" s="15"/>
       <c r="BT88" s="15"/>
     </row>
-    <row r="89" spans="1:72" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:72" x14ac:dyDescent="0.2">
       <c r="B89" s="15"/>
       <c r="C89" s="12"/>
       <c r="D89" s="12"/>
@@ -22191,7 +22254,7 @@
       <c r="BS89" s="15"/>
       <c r="BT89" s="15"/>
     </row>
-    <row r="90" spans="1:72" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:72" x14ac:dyDescent="0.2">
       <c r="B90" s="15"/>
       <c r="C90" s="10"/>
       <c r="D90" s="12"/>
@@ -22252,7 +22315,7 @@
       <c r="BS90" s="15"/>
       <c r="BT90" s="15"/>
     </row>
-    <row r="91" spans="1:72" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:72" x14ac:dyDescent="0.2">
       <c r="B91" s="15"/>
       <c r="C91" s="10"/>
       <c r="D91" s="12"/>
@@ -22313,7 +22376,7 @@
       <c r="BS91" s="15"/>
       <c r="BT91" s="15"/>
     </row>
-    <row r="92" spans="1:72" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:72" x14ac:dyDescent="0.2">
       <c r="B92" s="15"/>
       <c r="C92" s="10"/>
       <c r="D92" s="12"/>
@@ -22374,7 +22437,7 @@
       <c r="BS92" s="15"/>
       <c r="BT92" s="15"/>
     </row>
-    <row r="93" spans="1:72" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:72" x14ac:dyDescent="0.2">
       <c r="B93" s="15"/>
       <c r="C93" s="10"/>
       <c r="D93" s="12"/>
@@ -22435,7 +22498,7 @@
       <c r="BS93" s="15"/>
       <c r="BT93" s="15"/>
     </row>
-    <row r="94" spans="1:72" s="45" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:72" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B94" s="15"/>
       <c r="C94" s="12"/>
       <c r="D94" s="12"/>
@@ -22496,7 +22559,7 @@
       <c r="BS94" s="15"/>
       <c r="BT94" s="15"/>
     </row>
-    <row r="95" spans="1:72" s="45" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:72" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B95" s="15"/>
       <c r="C95" s="10"/>
       <c r="D95" s="10"/>
@@ -22557,7 +22620,7 @@
       <c r="BS95" s="15"/>
       <c r="BT95" s="15"/>
     </row>
-    <row r="96" spans="1:72" s="45" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:72" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B96" s="15"/>
       <c r="C96" s="10"/>
       <c r="D96" s="10"/>
@@ -22618,7 +22681,7 @@
       <c r="BS96" s="15"/>
       <c r="BT96" s="15"/>
     </row>
-    <row r="97" spans="2:72" s="45" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:72" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B97" s="15"/>
       <c r="C97" s="10"/>
       <c r="D97" s="12"/>
@@ -22679,7 +22742,7 @@
       <c r="BS97" s="15"/>
       <c r="BT97" s="15"/>
     </row>
-    <row r="98" spans="2:72" s="45" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:72" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B98" s="15"/>
       <c r="C98" s="10"/>
       <c r="D98" s="12"/>
@@ -22740,7 +22803,7 @@
       <c r="BS98" s="15"/>
       <c r="BT98" s="15"/>
     </row>
-    <row r="99" spans="2:72" s="45" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:72" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B99" s="15"/>
       <c r="C99" s="10"/>
       <c r="D99" s="12"/>
@@ -22801,7 +22864,7 @@
       <c r="BS99" s="15"/>
       <c r="BT99" s="15"/>
     </row>
-    <row r="100" spans="2:72" s="45" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:72" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B100" s="15"/>
       <c r="C100" s="10"/>
       <c r="D100" s="10"/>
@@ -22862,7 +22925,7 @@
       <c r="BS100" s="15"/>
       <c r="BT100" s="15"/>
     </row>
-    <row r="101" spans="2:72" s="45" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:72" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B101" s="15"/>
       <c r="C101" s="10"/>
       <c r="D101" s="10"/>
@@ -22923,7 +22986,7 @@
       <c r="BS101" s="15"/>
       <c r="BT101" s="15"/>
     </row>
-    <row r="102" spans="2:72" s="45" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:72" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B102" s="15"/>
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
@@ -22996,7 +23059,7 @@
       <c r="BS102" s="15"/>
       <c r="BT102" s="15"/>
     </row>
-    <row r="103" spans="2:72" s="45" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:72" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B103" s="15"/>
       <c r="C103" s="10"/>
       <c r="D103" s="10"/>
@@ -23069,7 +23132,7 @@
       <c r="BS103" s="15"/>
       <c r="BT103" s="15"/>
     </row>
-    <row r="104" spans="2:72" s="45" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:72" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B104" s="15"/>
       <c r="C104" s="10"/>
       <c r="D104" s="10"/>
@@ -23142,7 +23205,7 @@
       <c r="BS104" s="15"/>
       <c r="BT104" s="15"/>
     </row>
-    <row r="105" spans="2:72" s="45" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:72" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B105" s="15"/>
       <c r="C105" s="10"/>
       <c r="D105" s="10"/>
@@ -23215,7 +23278,7 @@
       <c r="BS105" s="15"/>
       <c r="BT105" s="15"/>
     </row>
-    <row r="106" spans="2:72" s="45" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:72" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B106" s="15"/>
       <c r="C106" s="10"/>
       <c r="D106" s="12"/>
@@ -23288,7 +23351,7 @@
       <c r="BS106" s="15"/>
       <c r="BT106" s="15"/>
     </row>
-    <row r="107" spans="2:72" s="45" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:72" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B107" s="15"/>
       <c r="C107" s="10"/>
       <c r="D107" s="10"/>
@@ -23361,7 +23424,7 @@
       <c r="BS107" s="15"/>
       <c r="BT107" s="15"/>
     </row>
-    <row r="108" spans="2:72" s="45" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:72" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B108" s="15"/>
       <c r="C108" s="10"/>
       <c r="D108" s="10"/>
@@ -23434,7 +23497,7 @@
       <c r="BS108" s="15"/>
       <c r="BT108" s="15"/>
     </row>
-    <row r="109" spans="2:72" s="45" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:72" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B109" s="15"/>
       <c r="C109" s="10"/>
       <c r="D109" s="10"/>
@@ -23507,7 +23570,7 @@
       <c r="BS109" s="15"/>
       <c r="BT109" s="15"/>
     </row>
-    <row r="110" spans="2:72" s="45" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:72" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B110" s="15"/>
       <c r="C110" s="10"/>
       <c r="D110" s="12"/>
@@ -23580,7 +23643,7 @@
       <c r="BS110" s="15"/>
       <c r="BT110" s="15"/>
     </row>
-    <row r="111" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B111" s="15"/>
       <c r="C111" s="10"/>
       <c r="D111" s="10"/>
@@ -23641,7 +23704,7 @@
       <c r="BS111" s="15"/>
       <c r="BT111" s="15"/>
     </row>
-    <row r="112" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B112" s="15"/>
       <c r="C112" s="10"/>
       <c r="D112" s="10"/>
@@ -23702,7 +23765,7 @@
       <c r="BS112" s="15"/>
       <c r="BT112" s="15"/>
     </row>
-    <row r="113" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B113" s="15"/>
       <c r="C113" s="10"/>
       <c r="D113" s="10"/>
@@ -23763,7 +23826,7 @@
       <c r="BS113" s="15"/>
       <c r="BT113" s="15"/>
     </row>
-    <row r="114" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B114" s="15"/>
       <c r="C114" s="10"/>
       <c r="D114" s="12"/>
@@ -23824,7 +23887,7 @@
       <c r="BS114" s="15"/>
       <c r="BT114" s="15"/>
     </row>
-    <row r="115" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B115" s="15"/>
       <c r="C115" s="10"/>
       <c r="D115" s="12"/>
@@ -23885,7 +23948,7 @@
       <c r="BS115" s="15"/>
       <c r="BT115" s="15"/>
     </row>
-    <row r="116" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B116" s="15"/>
       <c r="C116" s="10"/>
       <c r="D116" s="10"/>
@@ -23946,7 +24009,7 @@
       <c r="BS116" s="15"/>
       <c r="BT116" s="15"/>
     </row>
-    <row r="117" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B117" s="15"/>
       <c r="C117" s="10"/>
       <c r="D117" s="10"/>
@@ -24007,7 +24070,7 @@
       <c r="BS117" s="15"/>
       <c r="BT117" s="15"/>
     </row>
-    <row r="118" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B118" s="15"/>
       <c r="C118" s="10"/>
       <c r="D118" s="10"/>
@@ -24068,7 +24131,7 @@
       <c r="BS118" s="15"/>
       <c r="BT118" s="15"/>
     </row>
-    <row r="119" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B119" s="15"/>
       <c r="C119" s="12"/>
       <c r="D119" s="12"/>
@@ -24129,7 +24192,7 @@
       <c r="BS119" s="15"/>
       <c r="BT119" s="15"/>
     </row>
-    <row r="120" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B120" s="15"/>
       <c r="C120" s="10"/>
       <c r="D120" s="12"/>
@@ -24190,7 +24253,7 @@
       <c r="BS120" s="15"/>
       <c r="BT120" s="15"/>
     </row>
-    <row r="121" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B121" s="15"/>
       <c r="C121" s="10"/>
       <c r="D121" s="12"/>
@@ -24251,7 +24314,7 @@
       <c r="BS121" s="15"/>
       <c r="BT121" s="15"/>
     </row>
-    <row r="122" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B122" s="15"/>
       <c r="C122" s="10"/>
       <c r="D122" s="12"/>
@@ -24324,7 +24387,7 @@
       <c r="BS122" s="15"/>
       <c r="BT122" s="15"/>
     </row>
-    <row r="123" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B123" s="15"/>
       <c r="C123" s="10"/>
       <c r="D123" s="12"/>
@@ -24397,7 +24460,7 @@
       <c r="BS123" s="15"/>
       <c r="BT123" s="15"/>
     </row>
-    <row r="124" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B124" s="15"/>
       <c r="C124" s="10"/>
       <c r="D124" s="10"/>
@@ -24470,7 +24533,7 @@
       <c r="BS124" s="15"/>
       <c r="BT124" s="15"/>
     </row>
-    <row r="125" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B125" s="15"/>
       <c r="C125" s="10"/>
       <c r="D125" s="10"/>
@@ -24531,7 +24594,7 @@
       <c r="BS125" s="15"/>
       <c r="BT125" s="15"/>
     </row>
-    <row r="126" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B126" s="15"/>
       <c r="C126" s="10"/>
       <c r="D126" s="10"/>
@@ -24592,7 +24655,7 @@
       <c r="BS126" s="15"/>
       <c r="BT126" s="15"/>
     </row>
-    <row r="127" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B127" s="15"/>
       <c r="C127" s="10"/>
       <c r="D127" s="10"/>
@@ -24653,7 +24716,7 @@
       <c r="BS127" s="15"/>
       <c r="BT127" s="15"/>
     </row>
-    <row r="128" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B128" s="15"/>
       <c r="C128" s="10"/>
       <c r="D128" s="10"/>
@@ -24714,7 +24777,7 @@
       <c r="BS128" s="15"/>
       <c r="BT128" s="15"/>
     </row>
-    <row r="129" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B129" s="15"/>
       <c r="C129" s="10"/>
       <c r="D129" s="10"/>
@@ -24775,7 +24838,7 @@
       <c r="BS129" s="15"/>
       <c r="BT129" s="15"/>
     </row>
-    <row r="130" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B130" s="15"/>
       <c r="C130" s="10"/>
       <c r="D130" s="10"/>
@@ -24836,7 +24899,7 @@
       <c r="BS130" s="15"/>
       <c r="BT130" s="15"/>
     </row>
-    <row r="131" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B131" s="15"/>
       <c r="C131" s="10"/>
       <c r="D131" s="10"/>
@@ -24897,7 +24960,7 @@
       <c r="BS131" s="15"/>
       <c r="BT131" s="15"/>
     </row>
-    <row r="132" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B132" s="15"/>
       <c r="C132" s="12"/>
       <c r="D132" s="12"/>
@@ -24958,7 +25021,7 @@
       <c r="BS132" s="15"/>
       <c r="BT132" s="15"/>
     </row>
-    <row r="133" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B133" s="15"/>
       <c r="C133" s="10"/>
       <c r="D133" s="10"/>
@@ -25031,7 +25094,7 @@
       <c r="BS133" s="15"/>
       <c r="BT133" s="15"/>
     </row>
-    <row r="134" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B134" s="15"/>
       <c r="C134" s="10"/>
       <c r="D134" s="10"/>
@@ -25092,7 +25155,7 @@
       <c r="BS134" s="15"/>
       <c r="BT134" s="15"/>
     </row>
-    <row r="135" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B135" s="15"/>
       <c r="C135" s="10"/>
       <c r="D135" s="12"/>
@@ -25153,7 +25216,7 @@
       <c r="BS135" s="15"/>
       <c r="BT135" s="15"/>
     </row>
-    <row r="136" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B136" s="15"/>
       <c r="C136" s="12"/>
       <c r="D136" s="12"/>
@@ -25214,7 +25277,7 @@
       <c r="BS136" s="15"/>
       <c r="BT136" s="15"/>
     </row>
-    <row r="137" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B137" s="15"/>
       <c r="C137" s="12"/>
       <c r="D137" s="12"/>
@@ -25275,7 +25338,7 @@
       <c r="BS137" s="15"/>
       <c r="BT137" s="15"/>
     </row>
-    <row r="138" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B138" s="15"/>
       <c r="C138" s="10"/>
       <c r="D138" s="10"/>
@@ -25336,7 +25399,7 @@
       <c r="BS138" s="15"/>
       <c r="BT138" s="15"/>
     </row>
-    <row r="139" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B139" s="15"/>
       <c r="C139" s="10"/>
       <c r="D139" s="10"/>
@@ -25397,7 +25460,7 @@
       <c r="BS139" s="15"/>
       <c r="BT139" s="15"/>
     </row>
-    <row r="140" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B140" s="15"/>
       <c r="C140" s="10"/>
       <c r="D140" s="10"/>
@@ -25458,7 +25521,7 @@
       <c r="BS140" s="15"/>
       <c r="BT140" s="15"/>
     </row>
-    <row r="141" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B141" s="15"/>
       <c r="C141" s="10"/>
       <c r="D141" s="10"/>
@@ -25519,7 +25582,7 @@
       <c r="BS141" s="15"/>
       <c r="BT141" s="15"/>
     </row>
-    <row r="142" spans="2:72" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:72" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B142" s="15"/>
       <c r="C142" s="15"/>
       <c r="D142" s="15"/>
@@ -25592,7 +25655,7 @@
       <c r="BS142" s="15"/>
       <c r="BT142" s="15"/>
     </row>
-    <row r="143" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B143" s="15"/>
       <c r="C143" s="15"/>
       <c r="D143" s="15"/>
@@ -25653,7 +25716,7 @@
       <c r="BS143" s="15"/>
       <c r="BT143" s="15"/>
     </row>
-    <row r="144" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B144" s="15"/>
       <c r="C144" s="15"/>
       <c r="D144" s="15"/>
@@ -25726,7 +25789,7 @@
       <c r="BS144" s="15"/>
       <c r="BT144" s="15"/>
     </row>
-    <row r="145" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B145" s="15"/>
       <c r="C145" s="15"/>
       <c r="D145" s="15"/>
@@ -25799,7 +25862,7 @@
       <c r="BS145" s="15"/>
       <c r="BT145" s="15"/>
     </row>
-    <row r="146" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B146" s="15"/>
       <c r="C146" s="15"/>
       <c r="D146" s="15"/>
@@ -25872,7 +25935,7 @@
       <c r="BS146" s="15"/>
       <c r="BT146" s="15"/>
     </row>
-    <row r="147" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B147" s="15"/>
       <c r="C147" s="15"/>
       <c r="D147" s="15"/>
@@ -25945,7 +26008,7 @@
       <c r="BS147" s="15"/>
       <c r="BT147" s="15"/>
     </row>
-    <row r="148" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B148" s="15"/>
       <c r="C148" s="15"/>
       <c r="D148" s="15"/>
@@ -26018,7 +26081,7 @@
       <c r="BS148" s="15"/>
       <c r="BT148" s="15"/>
     </row>
-    <row r="149" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B149" s="15"/>
       <c r="C149" s="15"/>
       <c r="D149" s="15"/>
@@ -26091,7 +26154,7 @@
       <c r="BS149" s="15"/>
       <c r="BT149" s="15"/>
     </row>
-    <row r="150" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B150" s="15"/>
       <c r="C150" s="15"/>
       <c r="D150" s="15"/>
@@ -26164,7 +26227,7 @@
       <c r="BS150" s="15"/>
       <c r="BT150" s="15"/>
     </row>
-    <row r="151" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B151" s="15"/>
       <c r="C151" s="15"/>
       <c r="D151" s="15"/>
@@ -26237,7 +26300,7 @@
       <c r="BS151" s="15"/>
       <c r="BT151" s="15"/>
     </row>
-    <row r="152" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B152" s="15"/>
       <c r="C152" s="15"/>
       <c r="D152" s="15"/>
@@ -26310,7 +26373,7 @@
       <c r="BS152" s="15"/>
       <c r="BT152" s="15"/>
     </row>
-    <row r="153" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B153" s="15"/>
       <c r="C153" s="15"/>
       <c r="D153" s="15"/>
@@ -26383,7 +26446,7 @@
       <c r="BS153" s="15"/>
       <c r="BT153" s="15"/>
     </row>
-    <row r="154" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B154" s="15"/>
       <c r="C154" s="15"/>
       <c r="D154" s="15"/>
@@ -26456,7 +26519,7 @@
       <c r="BS154" s="15"/>
       <c r="BT154" s="15"/>
     </row>
-    <row r="155" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B155" s="15"/>
       <c r="C155" s="15"/>
       <c r="D155" s="15"/>
@@ -26529,7 +26592,7 @@
       <c r="BS155" s="15"/>
       <c r="BT155" s="15"/>
     </row>
-    <row r="156" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="156" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B156" s="15"/>
       <c r="C156" s="15"/>
       <c r="D156" s="15"/>
@@ -26602,7 +26665,7 @@
       <c r="BS156" s="15"/>
       <c r="BT156" s="15"/>
     </row>
-    <row r="157" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B157" s="15"/>
       <c r="C157" s="15"/>
       <c r="D157" s="15"/>
@@ -26675,7 +26738,7 @@
       <c r="BS157" s="15"/>
       <c r="BT157" s="15"/>
     </row>
-    <row r="158" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B158" s="15"/>
       <c r="C158" s="15"/>
       <c r="D158" s="15"/>
@@ -26748,7 +26811,7 @@
       <c r="BS158" s="15"/>
       <c r="BT158" s="15"/>
     </row>
-    <row r="159" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B159" s="15"/>
       <c r="C159" s="15"/>
       <c r="D159" s="15"/>
@@ -26821,7 +26884,7 @@
       <c r="BS159" s="15"/>
       <c r="BT159" s="15"/>
     </row>
-    <row r="160" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B160" s="15"/>
       <c r="C160" s="15"/>
       <c r="D160" s="15"/>
@@ -26894,7 +26957,7 @@
       <c r="BS160" s="15"/>
       <c r="BT160" s="15"/>
     </row>
-    <row r="161" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="161" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B161" s="15"/>
       <c r="C161" s="15"/>
       <c r="D161" s="15"/>
@@ -26967,7 +27030,7 @@
       <c r="BS161" s="15"/>
       <c r="BT161" s="15"/>
     </row>
-    <row r="162" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="162" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B162" s="15"/>
       <c r="C162" s="15"/>
       <c r="D162" s="15"/>
@@ -27040,7 +27103,7 @@
       <c r="BS162" s="15"/>
       <c r="BT162" s="15"/>
     </row>
-    <row r="163" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="163" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B163" s="15"/>
       <c r="C163" s="15"/>
       <c r="D163" s="15"/>
@@ -27113,7 +27176,7 @@
       <c r="BS163" s="15"/>
       <c r="BT163" s="15"/>
     </row>
-    <row r="164" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="164" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B164" s="15"/>
       <c r="C164" s="15"/>
       <c r="D164" s="15"/>
@@ -27186,7 +27249,7 @@
       <c r="BS164" s="15"/>
       <c r="BT164" s="15"/>
     </row>
-    <row r="165" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="165" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B165" s="15"/>
       <c r="C165" s="15"/>
       <c r="D165" s="15"/>
@@ -27259,7 +27322,7 @@
       <c r="BS165" s="15"/>
       <c r="BT165" s="15"/>
     </row>
-    <row r="166" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="166" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B166" s="10"/>
       <c r="C166" s="10"/>
       <c r="D166" s="10"/>
@@ -27332,7 +27395,7 @@
       <c r="BS166" s="15"/>
       <c r="BT166" s="15"/>
     </row>
-    <row r="167" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="167" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B167" s="10"/>
       <c r="C167" s="10"/>
       <c r="D167" s="10"/>
@@ -27405,7 +27468,7 @@
       <c r="BS167" s="15"/>
       <c r="BT167" s="15"/>
     </row>
-    <row r="168" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="168" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
       <c r="D168" s="10"/>
@@ -27478,7 +27541,7 @@
       <c r="BS168" s="15"/>
       <c r="BT168" s="15"/>
     </row>
-    <row r="169" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="169" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B169" s="10"/>
       <c r="C169" s="10"/>
       <c r="D169" s="10"/>
@@ -27551,7 +27614,7 @@
       <c r="BS169" s="15"/>
       <c r="BT169" s="15"/>
     </row>
-    <row r="170" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="170" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B170" s="10"/>
       <c r="C170" s="10"/>
       <c r="D170" s="10"/>
@@ -27624,7 +27687,7 @@
       <c r="BS170" s="15"/>
       <c r="BT170" s="15"/>
     </row>
-    <row r="171" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="171" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B171" s="10"/>
       <c r="C171" s="10"/>
       <c r="D171" s="10"/>
@@ -27697,7 +27760,7 @@
       <c r="BS171" s="15"/>
       <c r="BT171" s="15"/>
     </row>
-    <row r="172" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="172" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B172" s="10"/>
       <c r="C172" s="10"/>
       <c r="D172" s="10"/>
@@ -27770,7 +27833,7 @@
       <c r="BS172" s="15"/>
       <c r="BT172" s="15"/>
     </row>
-    <row r="173" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="173" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B173" s="10"/>
       <c r="C173" s="10"/>
       <c r="D173" s="10"/>
@@ -27843,7 +27906,7 @@
       <c r="BS173" s="15"/>
       <c r="BT173" s="15"/>
     </row>
-    <row r="174" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="174" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B174" s="10"/>
       <c r="C174" s="10"/>
       <c r="D174" s="10"/>
@@ -27916,7 +27979,7 @@
       <c r="BS174" s="15"/>
       <c r="BT174" s="15"/>
     </row>
-    <row r="175" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="175" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B175" s="10"/>
       <c r="C175" s="10"/>
       <c r="D175" s="10"/>
@@ -27989,7 +28052,7 @@
       <c r="BS175" s="15"/>
       <c r="BT175" s="15"/>
     </row>
-    <row r="176" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="176" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B176" s="10"/>
       <c r="C176" s="10"/>
       <c r="D176" s="10"/>
@@ -28062,7 +28125,7 @@
       <c r="BS176" s="15"/>
       <c r="BT176" s="15"/>
     </row>
-    <row r="177" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="177" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B177" s="10"/>
       <c r="C177" s="10"/>
       <c r="D177" s="10"/>
@@ -28135,7 +28198,7 @@
       <c r="BS177" s="15"/>
       <c r="BT177" s="15"/>
     </row>
-    <row r="178" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="178" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B178" s="10"/>
       <c r="C178" s="10"/>
       <c r="D178" s="10"/>
@@ -28208,7 +28271,7 @@
       <c r="BS178" s="15"/>
       <c r="BT178" s="15"/>
     </row>
-    <row r="179" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="179" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B179" s="10"/>
       <c r="C179" s="10"/>
       <c r="D179" s="10"/>
@@ -28281,7 +28344,7 @@
       <c r="BS179" s="15"/>
       <c r="BT179" s="15"/>
     </row>
-    <row r="180" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="180" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B180" s="10"/>
       <c r="C180" s="10"/>
       <c r="D180" s="10"/>
@@ -28354,7 +28417,7 @@
       <c r="BS180" s="15"/>
       <c r="BT180" s="15"/>
     </row>
-    <row r="181" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="181" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
       <c r="D181" s="10"/>
@@ -28427,7 +28490,7 @@
       <c r="BS181" s="15"/>
       <c r="BT181" s="15"/>
     </row>
-    <row r="182" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="182" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B182" s="10"/>
       <c r="C182" s="10"/>
       <c r="D182" s="10"/>
@@ -28500,7 +28563,7 @@
       <c r="BS182" s="15"/>
       <c r="BT182" s="15"/>
     </row>
-    <row r="183" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="183" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B183" s="10"/>
       <c r="C183" s="10"/>
       <c r="D183" s="10"/>
@@ -28573,7 +28636,7 @@
       <c r="BS183" s="15"/>
       <c r="BT183" s="15"/>
     </row>
-    <row r="184" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="184" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B184" s="10"/>
       <c r="C184" s="10"/>
       <c r="D184" s="10"/>
@@ -28646,7 +28709,7 @@
       <c r="BS184" s="15"/>
       <c r="BT184" s="15"/>
     </row>
-    <row r="185" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="185" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B185" s="10"/>
       <c r="C185" s="10"/>
       <c r="D185" s="10"/>
@@ -28719,7 +28782,7 @@
       <c r="BS185" s="15"/>
       <c r="BT185" s="15"/>
     </row>
-    <row r="186" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="186" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B186" s="10"/>
       <c r="C186" s="10"/>
       <c r="D186" s="10"/>
@@ -28792,7 +28855,7 @@
       <c r="BS186" s="15"/>
       <c r="BT186" s="15"/>
     </row>
-    <row r="187" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="187" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B187" s="10"/>
       <c r="C187" s="10"/>
       <c r="D187" s="10"/>
@@ -28865,7 +28928,7 @@
       <c r="BS187" s="15"/>
       <c r="BT187" s="15"/>
     </row>
-    <row r="188" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="188" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B188" s="10"/>
       <c r="C188" s="10"/>
       <c r="D188" s="10"/>
@@ -28938,7 +29001,7 @@
       <c r="BS188" s="15"/>
       <c r="BT188" s="15"/>
     </row>
-    <row r="189" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="189" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B189" s="10"/>
       <c r="C189" s="10"/>
       <c r="D189" s="10"/>
@@ -29011,7 +29074,7 @@
       <c r="BS189" s="15"/>
       <c r="BT189" s="15"/>
     </row>
-    <row r="190" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="190" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B190" s="10"/>
       <c r="C190" s="10"/>
       <c r="D190" s="10"/>
@@ -29084,7 +29147,7 @@
       <c r="BS190" s="15"/>
       <c r="BT190" s="15"/>
     </row>
-    <row r="191" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="191" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B191" s="10"/>
       <c r="C191" s="10"/>
       <c r="D191" s="10"/>
@@ -29157,7 +29220,7 @@
       <c r="BS191" s="15"/>
       <c r="BT191" s="15"/>
     </row>
-    <row r="192" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="192" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B192" s="10"/>
       <c r="C192" s="10"/>
       <c r="D192" s="10"/>
@@ -29230,7 +29293,7 @@
       <c r="BS192" s="15"/>
       <c r="BT192" s="15"/>
     </row>
-    <row r="193" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="193" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B193" s="10"/>
       <c r="C193" s="10"/>
       <c r="D193" s="10"/>
@@ -29303,7 +29366,7 @@
       <c r="BS193" s="15"/>
       <c r="BT193" s="15"/>
     </row>
-    <row r="194" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="194" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B194" s="10"/>
       <c r="C194" s="10"/>
       <c r="D194" s="10"/>
@@ -29376,7 +29439,7 @@
       <c r="BS194" s="15"/>
       <c r="BT194" s="15"/>
     </row>
-    <row r="195" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="195" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B195" s="10"/>
       <c r="C195" s="10"/>
       <c r="D195" s="10"/>
@@ -29449,7 +29512,7 @@
       <c r="BS195" s="15"/>
       <c r="BT195" s="15"/>
     </row>
-    <row r="196" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="196" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B196" s="10"/>
       <c r="C196" s="10"/>
       <c r="D196" s="10"/>
@@ -29522,7 +29585,7 @@
       <c r="BS196" s="15"/>
       <c r="BT196" s="15"/>
     </row>
-    <row r="197" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="197" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B197" s="10"/>
       <c r="C197" s="10"/>
       <c r="D197" s="10"/>
@@ -29595,7 +29658,7 @@
       <c r="BS197" s="15"/>
       <c r="BT197" s="15"/>
     </row>
-    <row r="198" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="198" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B198" s="10"/>
       <c r="C198" s="10"/>
       <c r="D198" s="10"/>
@@ -29668,7 +29731,7 @@
       <c r="BS198" s="15"/>
       <c r="BT198" s="15"/>
     </row>
-    <row r="199" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="199" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B199" s="10"/>
       <c r="C199" s="10"/>
       <c r="D199" s="10"/>
@@ -29741,7 +29804,7 @@
       <c r="BS199" s="15"/>
       <c r="BT199" s="15"/>
     </row>
-    <row r="200" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="200" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
       <c r="D200" s="10"/>
@@ -29814,7 +29877,7 @@
       <c r="BS200" s="15"/>
       <c r="BT200" s="15"/>
     </row>
-    <row r="201" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="201" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
       <c r="D201" s="10"/>
@@ -29887,7 +29950,7 @@
       <c r="BS201" s="15"/>
       <c r="BT201" s="15"/>
     </row>
-    <row r="202" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="202" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B202" s="10"/>
       <c r="C202" s="10"/>
       <c r="D202" s="10"/>
@@ -29960,7 +30023,7 @@
       <c r="BS202" s="15"/>
       <c r="BT202" s="15"/>
     </row>
-    <row r="203" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="203" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B203" s="10"/>
       <c r="C203" s="10"/>
       <c r="D203" s="10"/>
@@ -30033,7 +30096,7 @@
       <c r="BS203" s="15"/>
       <c r="BT203" s="15"/>
     </row>
-    <row r="204" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="204" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B204" s="10"/>
       <c r="C204" s="10"/>
       <c r="D204" s="10"/>
@@ -30106,7 +30169,7 @@
       <c r="BS204" s="15"/>
       <c r="BT204" s="15"/>
     </row>
-    <row r="205" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="205" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B205" s="10"/>
       <c r="C205" s="10"/>
       <c r="D205" s="10"/>
@@ -30179,7 +30242,7 @@
       <c r="BS205" s="15"/>
       <c r="BT205" s="15"/>
     </row>
-    <row r="206" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="206" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B206" s="10"/>
       <c r="C206" s="10"/>
       <c r="D206" s="10"/>
@@ -30252,7 +30315,7 @@
       <c r="BS206" s="15"/>
       <c r="BT206" s="15"/>
     </row>
-    <row r="207" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="207" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B207" s="10"/>
       <c r="C207" s="10"/>
       <c r="D207" s="10"/>
@@ -30325,7 +30388,7 @@
       <c r="BS207" s="15"/>
       <c r="BT207" s="15"/>
     </row>
-    <row r="208" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="208" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B208" s="10"/>
       <c r="C208" s="10"/>
       <c r="D208" s="10"/>
@@ -30398,7 +30461,7 @@
       <c r="BS208" s="15"/>
       <c r="BT208" s="15"/>
     </row>
-    <row r="209" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="209" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B209" s="10"/>
       <c r="C209" s="10"/>
       <c r="D209" s="10"/>
@@ -30471,7 +30534,7 @@
       <c r="BS209" s="15"/>
       <c r="BT209" s="15"/>
     </row>
-    <row r="210" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="210" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B210" s="10"/>
       <c r="C210" s="10"/>
       <c r="D210" s="10"/>
@@ -30544,7 +30607,7 @@
       <c r="BS210" s="15"/>
       <c r="BT210" s="15"/>
     </row>
-    <row r="211" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="211" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B211" s="10"/>
       <c r="C211" s="10"/>
       <c r="D211" s="10"/>
@@ -30617,7 +30680,7 @@
       <c r="BS211" s="15"/>
       <c r="BT211" s="15"/>
     </row>
-    <row r="212" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="212" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B212" s="10"/>
       <c r="C212" s="10"/>
       <c r="D212" s="10"/>
@@ -30690,7 +30753,7 @@
       <c r="BS212" s="15"/>
       <c r="BT212" s="15"/>
     </row>
-    <row r="213" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="213" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B213" s="10"/>
       <c r="C213" s="10"/>
       <c r="D213" s="10"/>
@@ -30763,7 +30826,7 @@
       <c r="BS213" s="15"/>
       <c r="BT213" s="15"/>
     </row>
-    <row r="214" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="214" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B214" s="10"/>
       <c r="C214" s="10"/>
       <c r="D214" s="10"/>
@@ -30836,7 +30899,7 @@
       <c r="BS214" s="15"/>
       <c r="BT214" s="15"/>
     </row>
-    <row r="215" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="215" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B215" s="10"/>
       <c r="C215" s="10"/>
       <c r="D215" s="10"/>
@@ -30909,7 +30972,7 @@
       <c r="BS215" s="15"/>
       <c r="BT215" s="15"/>
     </row>
-    <row r="216" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="216" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B216" s="10"/>
       <c r="C216" s="10"/>
       <c r="D216" s="10"/>
@@ -30982,7 +31045,7 @@
       <c r="BS216" s="15"/>
       <c r="BT216" s="15"/>
     </row>
-    <row r="217" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="217" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B217" s="10"/>
       <c r="C217" s="10"/>
       <c r="D217" s="10"/>
@@ -31055,7 +31118,7 @@
       <c r="BS217" s="15"/>
       <c r="BT217" s="15"/>
     </row>
-    <row r="218" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="218" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B218" s="10"/>
       <c r="C218" s="10"/>
       <c r="D218" s="10"/>
@@ -31128,7 +31191,7 @@
       <c r="BS218" s="15"/>
       <c r="BT218" s="15"/>
     </row>
-    <row r="219" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="219" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B219" s="10"/>
       <c r="C219" s="10"/>
       <c r="D219" s="10"/>
@@ -31201,7 +31264,7 @@
       <c r="BS219" s="15"/>
       <c r="BT219" s="15"/>
     </row>
-    <row r="220" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="220" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B220" s="10"/>
       <c r="C220" s="10"/>
       <c r="D220" s="10"/>
@@ -31274,7 +31337,7 @@
       <c r="BS220" s="15"/>
       <c r="BT220" s="15"/>
     </row>
-    <row r="221" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="221" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B221" s="10"/>
       <c r="C221" s="10"/>
       <c r="D221" s="10"/>
@@ -31347,7 +31410,7 @@
       <c r="BS221" s="15"/>
       <c r="BT221" s="15"/>
     </row>
-    <row r="222" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="222" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B222" s="10"/>
       <c r="C222" s="10"/>
       <c r="D222" s="10"/>
@@ -31420,7 +31483,7 @@
       <c r="BS222" s="15"/>
       <c r="BT222" s="15"/>
     </row>
-    <row r="223" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="223" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B223" s="10"/>
       <c r="C223" s="10"/>
       <c r="D223" s="10"/>
@@ -31493,7 +31556,7 @@
       <c r="BS223" s="15"/>
       <c r="BT223" s="15"/>
     </row>
-    <row r="224" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="224" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B224" s="10"/>
       <c r="C224" s="10"/>
       <c r="D224" s="10"/>
@@ -31566,7 +31629,7 @@
       <c r="BS224" s="15"/>
       <c r="BT224" s="15"/>
     </row>
-    <row r="225" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="225" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B225" s="10"/>
       <c r="C225" s="10"/>
       <c r="D225" s="10"/>
@@ -31639,7 +31702,7 @@
       <c r="BS225" s="15"/>
       <c r="BT225" s="15"/>
     </row>
-    <row r="226" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="226" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B226" s="10"/>
       <c r="C226" s="10"/>
       <c r="D226" s="10"/>
@@ -31712,7 +31775,7 @@
       <c r="BS226" s="15"/>
       <c r="BT226" s="15"/>
     </row>
-    <row r="227" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="227" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B227" s="10"/>
       <c r="C227" s="10"/>
       <c r="D227" s="10"/>
@@ -31785,7 +31848,7 @@
       <c r="BS227" s="15"/>
       <c r="BT227" s="15"/>
     </row>
-    <row r="228" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="228" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B228" s="10"/>
       <c r="C228" s="10"/>
       <c r="D228" s="10"/>
@@ -31858,7 +31921,7 @@
       <c r="BS228" s="15"/>
       <c r="BT228" s="15"/>
     </row>
-    <row r="229" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="229" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B229" s="10"/>
       <c r="C229" s="10"/>
       <c r="D229" s="10"/>
@@ -31931,7 +31994,7 @@
       <c r="BS229" s="15"/>
       <c r="BT229" s="15"/>
     </row>
-    <row r="230" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="230" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B230" s="10"/>
       <c r="C230" s="10"/>
       <c r="D230" s="10"/>
@@ -32004,7 +32067,7 @@
       <c r="BS230" s="15"/>
       <c r="BT230" s="15"/>
     </row>
-    <row r="231" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="231" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B231" s="10"/>
       <c r="C231" s="10"/>
       <c r="D231" s="10"/>
@@ -32077,7 +32140,7 @@
       <c r="BS231" s="15"/>
       <c r="BT231" s="15"/>
     </row>
-    <row r="232" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="232" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B232" s="10"/>
       <c r="C232" s="10"/>
       <c r="D232" s="10"/>
@@ -32150,7 +32213,7 @@
       <c r="BS232" s="15"/>
       <c r="BT232" s="15"/>
     </row>
-    <row r="233" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="233" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B233" s="10"/>
       <c r="C233" s="10"/>
       <c r="D233" s="10"/>
@@ -32223,7 +32286,7 @@
       <c r="BS233" s="15"/>
       <c r="BT233" s="15"/>
     </row>
-    <row r="234" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="234" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B234" s="10"/>
       <c r="C234" s="10"/>
       <c r="D234" s="10"/>
@@ -32296,7 +32359,7 @@
       <c r="BS234" s="15"/>
       <c r="BT234" s="15"/>
     </row>
-    <row r="235" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="235" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B235" s="10"/>
       <c r="C235" s="10"/>
       <c r="D235" s="10"/>
@@ -32369,7 +32432,7 @@
       <c r="BS235" s="15"/>
       <c r="BT235" s="15"/>
     </row>
-    <row r="236" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="236" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B236" s="10"/>
       <c r="C236" s="10"/>
       <c r="D236" s="10"/>
@@ -32442,7 +32505,7 @@
       <c r="BS236" s="15"/>
       <c r="BT236" s="15"/>
     </row>
-    <row r="237" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="237" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B237" s="10"/>
       <c r="C237" s="10"/>
       <c r="D237" s="10"/>
@@ -32515,7 +32578,7 @@
       <c r="BS237" s="15"/>
       <c r="BT237" s="15"/>
     </row>
-    <row r="238" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="238" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B238" s="10"/>
       <c r="C238" s="10"/>
       <c r="D238" s="10"/>
@@ -32588,7 +32651,7 @@
       <c r="BS238" s="15"/>
       <c r="BT238" s="15"/>
     </row>
-    <row r="239" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="239" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B239" s="10"/>
       <c r="C239" s="10"/>
       <c r="D239" s="10"/>
@@ -32661,7 +32724,7 @@
       <c r="BS239" s="15"/>
       <c r="BT239" s="15"/>
     </row>
-    <row r="240" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="240" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B240" s="10"/>
       <c r="C240" s="10"/>
       <c r="D240" s="10"/>
@@ -32734,7 +32797,7 @@
       <c r="BS240" s="15"/>
       <c r="BT240" s="15"/>
     </row>
-    <row r="241" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="241" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B241" s="10"/>
       <c r="C241" s="10"/>
       <c r="D241" s="10"/>
@@ -32807,7 +32870,7 @@
       <c r="BS241" s="15"/>
       <c r="BT241" s="15"/>
     </row>
-    <row r="242" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="242" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B242" s="10"/>
       <c r="C242" s="10"/>
       <c r="D242" s="10"/>
@@ -32880,7 +32943,7 @@
       <c r="BS242" s="15"/>
       <c r="BT242" s="15"/>
     </row>
-    <row r="243" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="243" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B243" s="10"/>
       <c r="C243" s="10"/>
       <c r="D243" s="10"/>
@@ -32953,7 +33016,7 @@
       <c r="BS243" s="15"/>
       <c r="BT243" s="15"/>
     </row>
-    <row r="244" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="244" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B244" s="10"/>
       <c r="C244" s="10"/>
       <c r="D244" s="10"/>
@@ -33026,7 +33089,7 @@
       <c r="BS244" s="15"/>
       <c r="BT244" s="15"/>
     </row>
-    <row r="245" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="245" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B245" s="10"/>
       <c r="C245" s="10"/>
       <c r="D245" s="10"/>
@@ -33099,7 +33162,7 @@
       <c r="BS245" s="15"/>
       <c r="BT245" s="15"/>
     </row>
-    <row r="246" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="246" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B246" s="10"/>
       <c r="C246" s="10"/>
       <c r="D246" s="10"/>
@@ -33172,7 +33235,7 @@
       <c r="BS246" s="15"/>
       <c r="BT246" s="15"/>
     </row>
-    <row r="247" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="247" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B247" s="10"/>
       <c r="C247" s="10"/>
       <c r="D247" s="10"/>
@@ -33245,7 +33308,7 @@
       <c r="BS247" s="15"/>
       <c r="BT247" s="15"/>
     </row>
-    <row r="248" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="248" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B248" s="10"/>
       <c r="C248" s="10"/>
       <c r="D248" s="10"/>
@@ -33318,7 +33381,7 @@
       <c r="BS248" s="15"/>
       <c r="BT248" s="15"/>
     </row>
-    <row r="249" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="249" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B249" s="10"/>
       <c r="C249" s="10"/>
       <c r="D249" s="10"/>
@@ -33391,7 +33454,7 @@
       <c r="BS249" s="15"/>
       <c r="BT249" s="15"/>
     </row>
-    <row r="250" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="250" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B250" s="10"/>
       <c r="C250" s="10"/>
       <c r="D250" s="10"/>
@@ -33464,7 +33527,7 @@
       <c r="BS250" s="15"/>
       <c r="BT250" s="15"/>
     </row>
-    <row r="251" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="251" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B251" s="10"/>
       <c r="C251" s="10"/>
       <c r="D251" s="10"/>
@@ -33537,7 +33600,7 @@
       <c r="BS251" s="15"/>
       <c r="BT251" s="15"/>
     </row>
-    <row r="252" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="252" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B252" s="10"/>
       <c r="C252" s="10"/>
       <c r="D252" s="10"/>
@@ -33610,7 +33673,7 @@
       <c r="BS252" s="15"/>
       <c r="BT252" s="15"/>
     </row>
-    <row r="253" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="253" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B253" s="10"/>
       <c r="C253" s="10"/>
       <c r="D253" s="10"/>
@@ -33683,7 +33746,7 @@
       <c r="BS253" s="15"/>
       <c r="BT253" s="15"/>
     </row>
-    <row r="254" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="254" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B254" s="10"/>
       <c r="C254" s="10"/>
       <c r="D254" s="10"/>
@@ -33756,7 +33819,7 @@
       <c r="BS254" s="15"/>
       <c r="BT254" s="15"/>
     </row>
-    <row r="255" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="255" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B255" s="10"/>
       <c r="C255" s="10"/>
       <c r="D255" s="10"/>
@@ -33829,7 +33892,7 @@
       <c r="BS255" s="15"/>
       <c r="BT255" s="15"/>
     </row>
-    <row r="256" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="256" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B256" s="10"/>
       <c r="C256" s="10"/>
       <c r="D256" s="10"/>
@@ -33902,7 +33965,7 @@
       <c r="BS256" s="15"/>
       <c r="BT256" s="15"/>
     </row>
-    <row r="257" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="257" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B257" s="10"/>
       <c r="C257" s="10"/>
       <c r="D257" s="10"/>
@@ -33975,7 +34038,7 @@
       <c r="BS257" s="15"/>
       <c r="BT257" s="15"/>
     </row>
-    <row r="258" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="258" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B258" s="10"/>
       <c r="C258" s="10"/>
       <c r="D258" s="10"/>
@@ -34048,7 +34111,7 @@
       <c r="BS258" s="15"/>
       <c r="BT258" s="15"/>
     </row>
-    <row r="259" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="259" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B259" s="10"/>
       <c r="C259" s="10"/>
       <c r="D259" s="10"/>
@@ -34121,7 +34184,7 @@
       <c r="BS259" s="15"/>
       <c r="BT259" s="15"/>
     </row>
-    <row r="260" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="260" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B260" s="10"/>
       <c r="C260" s="10"/>
       <c r="D260" s="10"/>
@@ -34194,7 +34257,7 @@
       <c r="BS260" s="15"/>
       <c r="BT260" s="15"/>
     </row>
-    <row r="261" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="261" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B261" s="10"/>
       <c r="C261" s="10"/>
       <c r="D261" s="10"/>
@@ -34267,7 +34330,7 @@
       <c r="BS261" s="15"/>
       <c r="BT261" s="15"/>
     </row>
-    <row r="262" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="262" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B262" s="10"/>
       <c r="C262" s="10"/>
       <c r="D262" s="10"/>
@@ -34340,7 +34403,7 @@
       <c r="BS262" s="15"/>
       <c r="BT262" s="15"/>
     </row>
-    <row r="263" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="263" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B263" s="10"/>
       <c r="C263" s="10"/>
       <c r="D263" s="10"/>
@@ -34413,7 +34476,7 @@
       <c r="BS263" s="15"/>
       <c r="BT263" s="15"/>
     </row>
-    <row r="264" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="264" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B264" s="10"/>
       <c r="C264" s="10"/>
       <c r="D264" s="10"/>
@@ -34486,7 +34549,7 @@
       <c r="BS264" s="15"/>
       <c r="BT264" s="15"/>
     </row>
-    <row r="265" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="265" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B265" s="10"/>
       <c r="C265" s="10"/>
       <c r="D265" s="10"/>
@@ -34559,7 +34622,7 @@
       <c r="BS265" s="15"/>
       <c r="BT265" s="15"/>
     </row>
-    <row r="266" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="266" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B266" s="10"/>
       <c r="C266" s="10"/>
       <c r="D266" s="10"/>
@@ -34632,7 +34695,7 @@
       <c r="BS266" s="15"/>
       <c r="BT266" s="15"/>
     </row>
-    <row r="267" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="267" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B267" s="10"/>
       <c r="C267" s="10"/>
       <c r="D267" s="10"/>
@@ -34705,7 +34768,7 @@
       <c r="BS267" s="15"/>
       <c r="BT267" s="15"/>
     </row>
-    <row r="268" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="268" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B268" s="10"/>
       <c r="C268" s="10"/>
       <c r="D268" s="10"/>
@@ -34778,7 +34841,7 @@
       <c r="BS268" s="15"/>
       <c r="BT268" s="15"/>
     </row>
-    <row r="269" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="269" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B269" s="10"/>
       <c r="C269" s="10"/>
       <c r="D269" s="10"/>
@@ -34851,7 +34914,7 @@
       <c r="BS269" s="15"/>
       <c r="BT269" s="15"/>
     </row>
-    <row r="270" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="270" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B270" s="10"/>
       <c r="C270" s="10"/>
       <c r="D270" s="10"/>
@@ -34924,7 +34987,7 @@
       <c r="BS270" s="15"/>
       <c r="BT270" s="15"/>
     </row>
-    <row r="271" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="271" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B271" s="10"/>
       <c r="C271" s="10"/>
       <c r="D271" s="10"/>
@@ -34997,7 +35060,7 @@
       <c r="BS271" s="15"/>
       <c r="BT271" s="15"/>
     </row>
-    <row r="272" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="272" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B272" s="10"/>
       <c r="C272" s="10"/>
       <c r="D272" s="10"/>
@@ -35070,7 +35133,7 @@
       <c r="BS272" s="15"/>
       <c r="BT272" s="15"/>
     </row>
-    <row r="273" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="273" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B273" s="10"/>
       <c r="C273" s="10"/>
       <c r="D273" s="10"/>
@@ -35143,7 +35206,7 @@
       <c r="BS273" s="15"/>
       <c r="BT273" s="15"/>
     </row>
-    <row r="274" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="274" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B274" s="10"/>
       <c r="C274" s="10"/>
       <c r="D274" s="10"/>
@@ -35216,7 +35279,7 @@
       <c r="BS274" s="15"/>
       <c r="BT274" s="15"/>
     </row>
-    <row r="275" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="275" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B275" s="10"/>
       <c r="C275" s="10"/>
       <c r="D275" s="10"/>
@@ -35289,7 +35352,7 @@
       <c r="BS275" s="15"/>
       <c r="BT275" s="15"/>
     </row>
-    <row r="276" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="276" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B276" s="10"/>
       <c r="C276" s="10"/>
       <c r="D276" s="10"/>
@@ -35362,7 +35425,7 @@
       <c r="BS276" s="15"/>
       <c r="BT276" s="15"/>
     </row>
-    <row r="277" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="277" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B277" s="10"/>
       <c r="C277" s="10"/>
       <c r="D277" s="10"/>
@@ -35435,7 +35498,7 @@
       <c r="BS277" s="15"/>
       <c r="BT277" s="15"/>
     </row>
-    <row r="278" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="278" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B278" s="10"/>
       <c r="C278" s="10"/>
       <c r="D278" s="10"/>
@@ -35508,7 +35571,7 @@
       <c r="BS278" s="15"/>
       <c r="BT278" s="15"/>
     </row>
-    <row r="279" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="279" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B279" s="10"/>
       <c r="C279" s="10"/>
       <c r="D279" s="10"/>
@@ -35581,7 +35644,7 @@
       <c r="BS279" s="15"/>
       <c r="BT279" s="15"/>
     </row>
-    <row r="280" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="280" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B280" s="10"/>
       <c r="C280" s="10"/>
       <c r="D280" s="10"/>
@@ -35654,7 +35717,7 @@
       <c r="BS280" s="15"/>
       <c r="BT280" s="15"/>
     </row>
-    <row r="281" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="281" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B281" s="10"/>
       <c r="C281" s="10"/>
       <c r="D281" s="10"/>
@@ -35727,7 +35790,7 @@
       <c r="BS281" s="15"/>
       <c r="BT281" s="15"/>
     </row>
-    <row r="282" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="282" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B282" s="10"/>
       <c r="C282" s="10"/>
       <c r="D282" s="10"/>
@@ -35800,7 +35863,7 @@
       <c r="BS282" s="15"/>
       <c r="BT282" s="15"/>
     </row>
-    <row r="283" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="283" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B283" s="10"/>
       <c r="C283" s="10"/>
       <c r="D283" s="10"/>
@@ -35873,7 +35936,7 @@
       <c r="BS283" s="15"/>
       <c r="BT283" s="15"/>
     </row>
-    <row r="284" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="284" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B284" s="10"/>
       <c r="C284" s="10"/>
       <c r="D284" s="10"/>
@@ -35946,7 +36009,7 @@
       <c r="BS284" s="15"/>
       <c r="BT284" s="15"/>
     </row>
-    <row r="285" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="285" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B285" s="10"/>
       <c r="C285" s="10"/>
       <c r="D285" s="10"/>
@@ -36019,7 +36082,7 @@
       <c r="BS285" s="15"/>
       <c r="BT285" s="15"/>
     </row>
-    <row r="286" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="286" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B286" s="10"/>
       <c r="C286" s="10"/>
       <c r="D286" s="10"/>
@@ -36092,7 +36155,7 @@
       <c r="BS286" s="15"/>
       <c r="BT286" s="15"/>
     </row>
-    <row r="287" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="287" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B287" s="10"/>
       <c r="C287" s="10"/>
       <c r="D287" s="10"/>
@@ -36165,7 +36228,7 @@
       <c r="BS287" s="15"/>
       <c r="BT287" s="15"/>
     </row>
-    <row r="288" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="288" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B288" s="10"/>
       <c r="C288" s="10"/>
       <c r="D288" s="10"/>
@@ -36238,7 +36301,7 @@
       <c r="BS288" s="15"/>
       <c r="BT288" s="15"/>
     </row>
-    <row r="289" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="289" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B289" s="10"/>
       <c r="C289" s="10"/>
       <c r="D289" s="10"/>
@@ -36311,7 +36374,7 @@
       <c r="BS289" s="15"/>
       <c r="BT289" s="15"/>
     </row>
-    <row r="290" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="290" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B290" s="10"/>
       <c r="C290" s="10"/>
       <c r="D290" s="10"/>
@@ -36384,7 +36447,7 @@
       <c r="BS290" s="15"/>
       <c r="BT290" s="15"/>
     </row>
-    <row r="291" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="291" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B291" s="10"/>
       <c r="C291" s="10"/>
       <c r="D291" s="10"/>
@@ -36457,7 +36520,7 @@
       <c r="BS291" s="15"/>
       <c r="BT291" s="15"/>
     </row>
-    <row r="292" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="292" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B292" s="10"/>
       <c r="C292" s="10"/>
       <c r="D292" s="10"/>
@@ -36530,7 +36593,7 @@
       <c r="BS292" s="15"/>
       <c r="BT292" s="15"/>
     </row>
-    <row r="293" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="293" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B293" s="10"/>
       <c r="C293" s="10"/>
       <c r="D293" s="10"/>
@@ -36603,7 +36666,7 @@
       <c r="BS293" s="15"/>
       <c r="BT293" s="15"/>
     </row>
-    <row r="294" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="294" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B294" s="10"/>
       <c r="C294" s="10"/>
       <c r="D294" s="10"/>
@@ -36676,7 +36739,7 @@
       <c r="BS294" s="15"/>
       <c r="BT294" s="15"/>
     </row>
-    <row r="295" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="295" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B295" s="10"/>
       <c r="C295" s="10"/>
       <c r="D295" s="10"/>
@@ -36749,7 +36812,7 @@
       <c r="BS295" s="15"/>
       <c r="BT295" s="15"/>
     </row>
-    <row r="296" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="296" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B296" s="10"/>
       <c r="C296" s="10"/>
       <c r="D296" s="10"/>
@@ -36822,7 +36885,7 @@
       <c r="BS296" s="15"/>
       <c r="BT296" s="15"/>
     </row>
-    <row r="297" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="297" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B297" s="10"/>
       <c r="C297" s="10"/>
       <c r="D297" s="10"/>
@@ -36895,7 +36958,7 @@
       <c r="BS297" s="15"/>
       <c r="BT297" s="15"/>
     </row>
-    <row r="298" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="298" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B298" s="10"/>
       <c r="C298" s="10"/>
       <c r="D298" s="10"/>
@@ -36968,7 +37031,7 @@
       <c r="BS298" s="15"/>
       <c r="BT298" s="15"/>
     </row>
-    <row r="299" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="299" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B299" s="10"/>
       <c r="C299" s="10"/>
       <c r="D299" s="10"/>
@@ -37041,7 +37104,7 @@
       <c r="BS299" s="15"/>
       <c r="BT299" s="15"/>
     </row>
-    <row r="300" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="300" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B300" s="10"/>
       <c r="C300" s="10"/>
       <c r="D300" s="10"/>
@@ -37114,7 +37177,7 @@
       <c r="BS300" s="15"/>
       <c r="BT300" s="15"/>
     </row>
-    <row r="301" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="301" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B301" s="10"/>
       <c r="C301" s="10"/>
       <c r="D301" s="10"/>
@@ -37187,7 +37250,7 @@
       <c r="BS301" s="15"/>
       <c r="BT301" s="15"/>
     </row>
-    <row r="302" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="302" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B302" s="10"/>
       <c r="C302" s="10"/>
       <c r="D302" s="10"/>
@@ -37260,7 +37323,7 @@
       <c r="BS302" s="15"/>
       <c r="BT302" s="15"/>
     </row>
-    <row r="303" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="303" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B303" s="10"/>
       <c r="C303" s="10"/>
       <c r="D303" s="10"/>
@@ -37333,7 +37396,7 @@
       <c r="BS303" s="15"/>
       <c r="BT303" s="15"/>
     </row>
-    <row r="304" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="304" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B304" s="10"/>
       <c r="C304" s="10"/>
       <c r="D304" s="10"/>
@@ -37406,7 +37469,7 @@
       <c r="BS304" s="15"/>
       <c r="BT304" s="15"/>
     </row>
-    <row r="305" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="305" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B305" s="10"/>
       <c r="C305" s="10"/>
       <c r="D305" s="10"/>
@@ -37479,7 +37542,7 @@
       <c r="BS305" s="15"/>
       <c r="BT305" s="15"/>
     </row>
-    <row r="306" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="306" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B306" s="10"/>
       <c r="C306" s="10"/>
       <c r="D306" s="10"/>
@@ -37552,7 +37615,7 @@
       <c r="BS306" s="15"/>
       <c r="BT306" s="15"/>
     </row>
-    <row r="307" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="307" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B307" s="10"/>
       <c r="C307" s="10"/>
       <c r="D307" s="10"/>
@@ -37625,7 +37688,7 @@
       <c r="BS307" s="15"/>
       <c r="BT307" s="15"/>
     </row>
-    <row r="308" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="308" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B308" s="10"/>
       <c r="C308" s="10"/>
       <c r="D308" s="10"/>
@@ -37698,7 +37761,7 @@
       <c r="BS308" s="15"/>
       <c r="BT308" s="15"/>
     </row>
-    <row r="309" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="309" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B309" s="10"/>
       <c r="C309" s="10"/>
       <c r="D309" s="10"/>
@@ -37771,7 +37834,7 @@
       <c r="BS309" s="15"/>
       <c r="BT309" s="15"/>
     </row>
-    <row r="310" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="310" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B310" s="10"/>
       <c r="C310" s="10"/>
       <c r="D310" s="10"/>
@@ -37844,7 +37907,7 @@
       <c r="BS310" s="15"/>
       <c r="BT310" s="15"/>
     </row>
-    <row r="311" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="311" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B311" s="10"/>
       <c r="C311" s="10"/>
       <c r="D311" s="10"/>
@@ -37917,7 +37980,7 @@
       <c r="BS311" s="15"/>
       <c r="BT311" s="15"/>
     </row>
-    <row r="312" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="312" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B312" s="10"/>
       <c r="C312" s="10"/>
       <c r="D312" s="10"/>
@@ -37990,7 +38053,7 @@
       <c r="BS312" s="15"/>
       <c r="BT312" s="15"/>
     </row>
-    <row r="313" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="313" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B313" s="10"/>
       <c r="C313" s="10"/>
       <c r="D313" s="10"/>
@@ -38063,7 +38126,7 @@
       <c r="BS313" s="15"/>
       <c r="BT313" s="15"/>
     </row>
-    <row r="314" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="314" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B314" s="10"/>
       <c r="C314" s="10"/>
       <c r="D314" s="10"/>
@@ -38136,7 +38199,7 @@
       <c r="BS314" s="15"/>
       <c r="BT314" s="15"/>
     </row>
-    <row r="315" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="315" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B315" s="10"/>
       <c r="C315" s="10"/>
       <c r="D315" s="10"/>
@@ -38209,7 +38272,7 @@
       <c r="BS315" s="15"/>
       <c r="BT315" s="15"/>
     </row>
-    <row r="316" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="316" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B316" s="10"/>
       <c r="C316" s="10"/>
       <c r="D316" s="10"/>
@@ -38282,7 +38345,7 @@
       <c r="BS316" s="15"/>
       <c r="BT316" s="15"/>
     </row>
-    <row r="317" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="317" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B317" s="10"/>
       <c r="C317" s="10"/>
       <c r="D317" s="10"/>
@@ -38355,7 +38418,7 @@
       <c r="BS317" s="15"/>
       <c r="BT317" s="15"/>
     </row>
-    <row r="318" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="318" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B318" s="10"/>
       <c r="C318" s="10"/>
       <c r="D318" s="10"/>
@@ -38428,7 +38491,7 @@
       <c r="BS318" s="15"/>
       <c r="BT318" s="15"/>
     </row>
-    <row r="319" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="319" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B319" s="10"/>
       <c r="C319" s="10"/>
       <c r="D319" s="10"/>
@@ -38501,7 +38564,7 @@
       <c r="BS319" s="15"/>
       <c r="BT319" s="15"/>
     </row>
-    <row r="320" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="320" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B320" s="10"/>
       <c r="C320" s="10"/>
       <c r="D320" s="10"/>
@@ -38574,7 +38637,7 @@
       <c r="BS320" s="15"/>
       <c r="BT320" s="15"/>
     </row>
-    <row r="321" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="321" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B321" s="10"/>
       <c r="C321" s="10"/>
       <c r="D321" s="10"/>
@@ -38647,7 +38710,7 @@
       <c r="BS321" s="15"/>
       <c r="BT321" s="15"/>
     </row>
-    <row r="322" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="322" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B322" s="10"/>
       <c r="C322" s="10"/>
       <c r="D322" s="10"/>
@@ -38720,7 +38783,7 @@
       <c r="BS322" s="15"/>
       <c r="BT322" s="15"/>
     </row>
-    <row r="323" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="323" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B323" s="10"/>
       <c r="C323" s="10"/>
       <c r="D323" s="10"/>
@@ -38793,7 +38856,7 @@
       <c r="BS323" s="15"/>
       <c r="BT323" s="15"/>
     </row>
-    <row r="324" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="324" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B324" s="10"/>
       <c r="C324" s="10"/>
       <c r="D324" s="10"/>
@@ -38866,7 +38929,7 @@
       <c r="BS324" s="15"/>
       <c r="BT324" s="15"/>
     </row>
-    <row r="325" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="325" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B325" s="10"/>
       <c r="C325" s="10"/>
       <c r="D325" s="10"/>
@@ -38939,7 +39002,7 @@
       <c r="BS325" s="15"/>
       <c r="BT325" s="15"/>
     </row>
-    <row r="326" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="326" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B326" s="10"/>
       <c r="C326" s="10"/>
       <c r="D326" s="10"/>
@@ -39012,7 +39075,7 @@
       <c r="BS326" s="15"/>
       <c r="BT326" s="15"/>
     </row>
-    <row r="327" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="327" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B327" s="10"/>
       <c r="C327" s="10"/>
       <c r="D327" s="10"/>
@@ -39085,7 +39148,7 @@
       <c r="BS327" s="15"/>
       <c r="BT327" s="15"/>
     </row>
-    <row r="328" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="328" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B328" s="10"/>
       <c r="C328" s="10"/>
       <c r="D328" s="10"/>
@@ -39158,7 +39221,7 @@
       <c r="BS328" s="15"/>
       <c r="BT328" s="15"/>
     </row>
-    <row r="329" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="329" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B329" s="10"/>
       <c r="C329" s="10"/>
       <c r="D329" s="10"/>
@@ -39231,7 +39294,7 @@
       <c r="BS329" s="15"/>
       <c r="BT329" s="15"/>
     </row>
-    <row r="330" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="330" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B330" s="10"/>
       <c r="C330" s="10"/>
       <c r="D330" s="10"/>
@@ -39304,7 +39367,7 @@
       <c r="BS330" s="15"/>
       <c r="BT330" s="15"/>
     </row>
-    <row r="331" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="331" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B331" s="10"/>
       <c r="C331" s="10"/>
       <c r="D331" s="10"/>
@@ -39377,7 +39440,7 @@
       <c r="BS331" s="15"/>
       <c r="BT331" s="15"/>
     </row>
-    <row r="332" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="332" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B332" s="10"/>
       <c r="C332" s="10"/>
       <c r="D332" s="10"/>
@@ -39450,7 +39513,7 @@
       <c r="BS332" s="15"/>
       <c r="BT332" s="15"/>
     </row>
-    <row r="333" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="333" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B333" s="10"/>
       <c r="C333" s="10"/>
       <c r="D333" s="10"/>
@@ -39523,7 +39586,7 @@
       <c r="BS333" s="15"/>
       <c r="BT333" s="15"/>
     </row>
-    <row r="334" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="334" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B334" s="10"/>
       <c r="C334" s="10"/>
       <c r="D334" s="10"/>
@@ -39596,7 +39659,7 @@
       <c r="BS334" s="15"/>
       <c r="BT334" s="15"/>
     </row>
-    <row r="335" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="335" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B335" s="10"/>
       <c r="C335" s="10"/>
       <c r="D335" s="10"/>
@@ -39669,7 +39732,7 @@
       <c r="BS335" s="15"/>
       <c r="BT335" s="15"/>
     </row>
-    <row r="336" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="336" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B336" s="10"/>
       <c r="C336" s="10"/>
       <c r="D336" s="10"/>
@@ -39742,7 +39805,7 @@
       <c r="BS336" s="15"/>
       <c r="BT336" s="15"/>
     </row>
-    <row r="337" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="337" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B337" s="10"/>
       <c r="C337" s="10"/>
       <c r="D337" s="10"/>
@@ -39815,7 +39878,7 @@
       <c r="BS337" s="15"/>
       <c r="BT337" s="15"/>
     </row>
-    <row r="338" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="338" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B338" s="10"/>
       <c r="C338" s="10"/>
       <c r="D338" s="10"/>
@@ -39888,7 +39951,7 @@
       <c r="BS338" s="15"/>
       <c r="BT338" s="15"/>
     </row>
-    <row r="339" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="339" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B339" s="10"/>
       <c r="C339" s="10"/>
       <c r="D339" s="10"/>
@@ -39961,7 +40024,7 @@
       <c r="BS339" s="15"/>
       <c r="BT339" s="15"/>
     </row>
-    <row r="340" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="340" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B340" s="10"/>
       <c r="C340" s="10"/>
       <c r="D340" s="10"/>
@@ -40034,7 +40097,7 @@
       <c r="BS340" s="15"/>
       <c r="BT340" s="15"/>
     </row>
-    <row r="341" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="341" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B341" s="10"/>
       <c r="C341" s="10"/>
       <c r="D341" s="10"/>
@@ -40107,7 +40170,7 @@
       <c r="BS341" s="15"/>
       <c r="BT341" s="15"/>
     </row>
-    <row r="342" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="342" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B342" s="10"/>
       <c r="C342" s="10"/>
       <c r="D342" s="10"/>
@@ -40180,7 +40243,7 @@
       <c r="BS342" s="15"/>
       <c r="BT342" s="15"/>
     </row>
-    <row r="343" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="343" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B343" s="10"/>
       <c r="C343" s="10"/>
       <c r="D343" s="10"/>
@@ -40253,7 +40316,7 @@
       <c r="BS343" s="15"/>
       <c r="BT343" s="15"/>
     </row>
-    <row r="344" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="344" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B344" s="10"/>
       <c r="C344" s="10"/>
       <c r="D344" s="10"/>
@@ -40326,7 +40389,7 @@
       <c r="BS344" s="15"/>
       <c r="BT344" s="15"/>
     </row>
-    <row r="345" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="345" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B345" s="10"/>
       <c r="C345" s="10"/>
       <c r="D345" s="10"/>
@@ -40399,7 +40462,7 @@
       <c r="BS345" s="15"/>
       <c r="BT345" s="15"/>
     </row>
-    <row r="346" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="346" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B346" s="10"/>
       <c r="C346" s="10"/>
       <c r="D346" s="10"/>
@@ -40472,7 +40535,7 @@
       <c r="BS346" s="15"/>
       <c r="BT346" s="15"/>
     </row>
-    <row r="347" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="347" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B347" s="10"/>
       <c r="C347" s="10"/>
       <c r="D347" s="10"/>
@@ -40545,7 +40608,7 @@
       <c r="BS347" s="15"/>
       <c r="BT347" s="15"/>
     </row>
-    <row r="348" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="348" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B348" s="10"/>
       <c r="C348" s="10"/>
       <c r="D348" s="10"/>
@@ -40618,7 +40681,7 @@
       <c r="BS348" s="15"/>
       <c r="BT348" s="15"/>
     </row>
-    <row r="349" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="349" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B349" s="10"/>
       <c r="C349" s="10"/>
       <c r="D349" s="10"/>
@@ -40691,7 +40754,7 @@
       <c r="BS349" s="15"/>
       <c r="BT349" s="15"/>
     </row>
-    <row r="350" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="350" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B350" s="10"/>
       <c r="C350" s="10"/>
       <c r="D350" s="10"/>
@@ -40764,7 +40827,7 @@
       <c r="BS350" s="15"/>
       <c r="BT350" s="15"/>
     </row>
-    <row r="351" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="351" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B351" s="10"/>
       <c r="C351" s="10"/>
       <c r="D351" s="10"/>
@@ -40837,7 +40900,7 @@
       <c r="BS351" s="15"/>
       <c r="BT351" s="15"/>
     </row>
-    <row r="352" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="352" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B352" s="10"/>
       <c r="C352" s="10"/>
       <c r="D352" s="10"/>
@@ -40910,7 +40973,7 @@
       <c r="BS352" s="15"/>
       <c r="BT352" s="15"/>
     </row>
-    <row r="353" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="353" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B353" s="10"/>
       <c r="C353" s="10"/>
       <c r="D353" s="10"/>
@@ -40983,7 +41046,7 @@
       <c r="BS353" s="15"/>
       <c r="BT353" s="15"/>
     </row>
-    <row r="354" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="354" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B354" s="10"/>
       <c r="C354" s="10"/>
       <c r="D354" s="10"/>
@@ -41056,7 +41119,7 @@
       <c r="BS354" s="15"/>
       <c r="BT354" s="15"/>
     </row>
-    <row r="355" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="355" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B355" s="10"/>
       <c r="C355" s="10"/>
       <c r="D355" s="10"/>
@@ -41129,7 +41192,7 @@
       <c r="BS355" s="15"/>
       <c r="BT355" s="15"/>
     </row>
-    <row r="356" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="356" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B356" s="10"/>
       <c r="C356" s="10"/>
       <c r="D356" s="10"/>
@@ -41202,7 +41265,7 @@
       <c r="BS356" s="15"/>
       <c r="BT356" s="15"/>
     </row>
-    <row r="357" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="357" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B357" s="10"/>
       <c r="C357" s="10"/>
       <c r="D357" s="10"/>
@@ -41275,7 +41338,7 @@
       <c r="BS357" s="15"/>
       <c r="BT357" s="15"/>
     </row>
-    <row r="358" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="358" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B358" s="10"/>
       <c r="C358" s="10"/>
       <c r="D358" s="10"/>
@@ -41348,7 +41411,7 @@
       <c r="BS358" s="15"/>
       <c r="BT358" s="15"/>
     </row>
-    <row r="359" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="359" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B359" s="10"/>
       <c r="C359" s="10"/>
       <c r="D359" s="10"/>
@@ -41421,7 +41484,7 @@
       <c r="BS359" s="15"/>
       <c r="BT359" s="15"/>
     </row>
-    <row r="360" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="360" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B360" s="10"/>
       <c r="C360" s="10"/>
       <c r="D360" s="10"/>
@@ -41494,7 +41557,7 @@
       <c r="BS360" s="15"/>
       <c r="BT360" s="15"/>
     </row>
-    <row r="361" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="361" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B361" s="10"/>
       <c r="C361" s="10"/>
       <c r="D361" s="10"/>
@@ -41567,7 +41630,7 @@
       <c r="BS361" s="15"/>
       <c r="BT361" s="15"/>
     </row>
-    <row r="362" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="362" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B362" s="10"/>
       <c r="C362" s="10"/>
       <c r="D362" s="10"/>
@@ -41640,7 +41703,7 @@
       <c r="BS362" s="15"/>
       <c r="BT362" s="15"/>
     </row>
-    <row r="363" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="363" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B363" s="10"/>
       <c r="C363" s="10"/>
       <c r="D363" s="10"/>
@@ -41713,7 +41776,7 @@
       <c r="BS363" s="15"/>
       <c r="BT363" s="15"/>
     </row>
-    <row r="364" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="364" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B364" s="10"/>
       <c r="C364" s="10"/>
       <c r="D364" s="10"/>
@@ -41786,7 +41849,7 @@
       <c r="BS364" s="15"/>
       <c r="BT364" s="15"/>
     </row>
-    <row r="365" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="365" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B365" s="10"/>
       <c r="C365" s="10"/>
       <c r="D365" s="10"/>
@@ -41859,7 +41922,7 @@
       <c r="BS365" s="15"/>
       <c r="BT365" s="15"/>
     </row>
-    <row r="366" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="366" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B366" s="10"/>
       <c r="C366" s="10"/>
       <c r="D366" s="10"/>
@@ -41932,7 +41995,7 @@
       <c r="BS366" s="15"/>
       <c r="BT366" s="15"/>
     </row>
-    <row r="367" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="367" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B367" s="10"/>
       <c r="C367" s="10"/>
       <c r="D367" s="10"/>
@@ -42005,7 +42068,7 @@
       <c r="BS367" s="15"/>
       <c r="BT367" s="15"/>
     </row>
-    <row r="368" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="368" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B368" s="10"/>
       <c r="C368" s="10"/>
       <c r="D368" s="10"/>
@@ -42078,7 +42141,7 @@
       <c r="BS368" s="15"/>
       <c r="BT368" s="15"/>
     </row>
-    <row r="369" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="369" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B369" s="10"/>
       <c r="C369" s="10"/>
       <c r="D369" s="10"/>
@@ -42151,7 +42214,7 @@
       <c r="BS369" s="15"/>
       <c r="BT369" s="15"/>
     </row>
-    <row r="370" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="370" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B370" s="10"/>
       <c r="C370" s="10"/>
       <c r="D370" s="10"/>
@@ -42224,7 +42287,7 @@
       <c r="BS370" s="15"/>
       <c r="BT370" s="15"/>
     </row>
-    <row r="371" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="371" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B371" s="10"/>
       <c r="C371" s="10"/>
       <c r="D371" s="10"/>
@@ -42297,7 +42360,7 @@
       <c r="BS371" s="15"/>
       <c r="BT371" s="15"/>
     </row>
-    <row r="372" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="372" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B372" s="10"/>
       <c r="C372" s="10"/>
       <c r="D372" s="10"/>
@@ -42370,7 +42433,7 @@
       <c r="BS372" s="15"/>
       <c r="BT372" s="15"/>
     </row>
-    <row r="373" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="373" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B373" s="10"/>
       <c r="C373" s="10"/>
       <c r="D373" s="10"/>
@@ -42443,7 +42506,7 @@
       <c r="BS373" s="15"/>
       <c r="BT373" s="15"/>
     </row>
-    <row r="374" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="374" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B374" s="10"/>
       <c r="C374" s="10"/>
       <c r="D374" s="10"/>
@@ -42516,7 +42579,7 @@
       <c r="BS374" s="15"/>
       <c r="BT374" s="15"/>
     </row>
-    <row r="375" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="375" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B375" s="10"/>
       <c r="C375" s="10"/>
       <c r="D375" s="10"/>
@@ -42589,7 +42652,7 @@
       <c r="BS375" s="15"/>
       <c r="BT375" s="15"/>
     </row>
-    <row r="376" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="376" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B376" s="10"/>
       <c r="C376" s="10"/>
       <c r="D376" s="10"/>
@@ -42662,7 +42725,7 @@
       <c r="BS376" s="15"/>
       <c r="BT376" s="15"/>
     </row>
-    <row r="377" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="377" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B377" s="10"/>
       <c r="C377" s="10"/>
       <c r="D377" s="10"/>
@@ -42735,7 +42798,7 @@
       <c r="BS377" s="15"/>
       <c r="BT377" s="15"/>
     </row>
-    <row r="378" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="378" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B378" s="10"/>
       <c r="C378" s="10"/>
       <c r="D378" s="10"/>
@@ -42808,7 +42871,7 @@
       <c r="BS378" s="15"/>
       <c r="BT378" s="15"/>
     </row>
-    <row r="379" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="379" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B379" s="10"/>
       <c r="C379" s="10"/>
       <c r="D379" s="10"/>
@@ -42881,7 +42944,7 @@
       <c r="BS379" s="15"/>
       <c r="BT379" s="15"/>
     </row>
-    <row r="380" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="380" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B380" s="10"/>
       <c r="C380" s="10"/>
       <c r="D380" s="10"/>
@@ -42954,7 +43017,7 @@
       <c r="BS380" s="15"/>
       <c r="BT380" s="15"/>
     </row>
-    <row r="381" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="381" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B381" s="10"/>
       <c r="C381" s="10"/>
       <c r="D381" s="10"/>
@@ -43027,7 +43090,7 @@
       <c r="BS381" s="15"/>
       <c r="BT381" s="15"/>
     </row>
-    <row r="382" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="382" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B382" s="10"/>
       <c r="C382" s="10"/>
       <c r="D382" s="10"/>
@@ -43100,7 +43163,7 @@
       <c r="BS382" s="15"/>
       <c r="BT382" s="15"/>
     </row>
-    <row r="383" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="383" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B383" s="10"/>
       <c r="C383" s="10"/>
       <c r="D383" s="10"/>
@@ -43173,7 +43236,7 @@
       <c r="BS383" s="15"/>
       <c r="BT383" s="15"/>
     </row>
-    <row r="384" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="384" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B384" s="10"/>
       <c r="C384" s="10"/>
       <c r="D384" s="10"/>
@@ -43246,7 +43309,7 @@
       <c r="BS384" s="15"/>
       <c r="BT384" s="15"/>
     </row>
-    <row r="385" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="385" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B385" s="10"/>
       <c r="C385" s="10"/>
       <c r="D385" s="10"/>
@@ -43319,7 +43382,7 @@
       <c r="BS385" s="15"/>
       <c r="BT385" s="15"/>
     </row>
-    <row r="386" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="386" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B386" s="10"/>
       <c r="C386" s="10"/>
       <c r="D386" s="10"/>
@@ -43392,7 +43455,7 @@
       <c r="BS386" s="15"/>
       <c r="BT386" s="15"/>
     </row>
-    <row r="387" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="387" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B387" s="10"/>
       <c r="C387" s="10"/>
       <c r="D387" s="10"/>
@@ -43465,7 +43528,7 @@
       <c r="BS387" s="15"/>
       <c r="BT387" s="15"/>
     </row>
-    <row r="388" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="388" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B388" s="10"/>
       <c r="C388" s="10"/>
       <c r="D388" s="10"/>
@@ -43538,7 +43601,7 @@
       <c r="BS388" s="15"/>
       <c r="BT388" s="15"/>
     </row>
-    <row r="389" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="389" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B389" s="10"/>
       <c r="C389" s="10"/>
       <c r="D389" s="10"/>
@@ -43611,7 +43674,7 @@
       <c r="BS389" s="15"/>
       <c r="BT389" s="15"/>
     </row>
-    <row r="390" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="390" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B390" s="10"/>
       <c r="C390" s="10"/>
       <c r="D390" s="10"/>
@@ -43684,7 +43747,7 @@
       <c r="BS390" s="15"/>
       <c r="BT390" s="15"/>
     </row>
-    <row r="391" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="391" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B391" s="10"/>
       <c r="C391" s="10"/>
       <c r="D391" s="10"/>
@@ -43757,7 +43820,7 @@
       <c r="BS391" s="15"/>
       <c r="BT391" s="15"/>
     </row>
-    <row r="392" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="392" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B392" s="10"/>
       <c r="C392" s="10"/>
       <c r="D392" s="10"/>
@@ -43830,7 +43893,7 @@
       <c r="BS392" s="15"/>
       <c r="BT392" s="15"/>
     </row>
-    <row r="393" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="393" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B393" s="10"/>
       <c r="C393" s="10"/>
       <c r="D393" s="10"/>
@@ -43903,7 +43966,7 @@
       <c r="BS393" s="15"/>
       <c r="BT393" s="15"/>
     </row>
-    <row r="394" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="394" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B394" s="10"/>
       <c r="C394" s="10"/>
       <c r="D394" s="10"/>
@@ -43976,7 +44039,7 @@
       <c r="BS394" s="15"/>
       <c r="BT394" s="15"/>
     </row>
-    <row r="395" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="395" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B395" s="10"/>
       <c r="C395" s="10"/>
       <c r="D395" s="10"/>
@@ -44049,7 +44112,7 @@
       <c r="BS395" s="15"/>
       <c r="BT395" s="15"/>
     </row>
-    <row r="396" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="396" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B396" s="10"/>
       <c r="C396" s="10"/>
       <c r="D396" s="10"/>
@@ -44122,7 +44185,7 @@
       <c r="BS396" s="15"/>
       <c r="BT396" s="15"/>
     </row>
-    <row r="397" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="397" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B397" s="10"/>
       <c r="C397" s="10"/>
       <c r="D397" s="10"/>
@@ -44195,7 +44258,7 @@
       <c r="BS397" s="15"/>
       <c r="BT397" s="15"/>
     </row>
-    <row r="398" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="398" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B398" s="10"/>
       <c r="C398" s="10"/>
       <c r="D398" s="10"/>
@@ -44268,7 +44331,7 @@
       <c r="BS398" s="15"/>
       <c r="BT398" s="15"/>
     </row>
-    <row r="399" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="399" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B399" s="10"/>
       <c r="C399" s="10"/>
       <c r="D399" s="10"/>
@@ -44341,7 +44404,7 @@
       <c r="BS399" s="15"/>
       <c r="BT399" s="15"/>
     </row>
-    <row r="400" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="400" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B400" s="10"/>
       <c r="C400" s="10"/>
       <c r="D400" s="10"/>
@@ -44414,7 +44477,7 @@
       <c r="BS400" s="15"/>
       <c r="BT400" s="15"/>
     </row>
-    <row r="401" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="401" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B401" s="10"/>
       <c r="C401" s="10"/>
       <c r="D401" s="10"/>
@@ -44487,7 +44550,7 @@
       <c r="BS401" s="15"/>
       <c r="BT401" s="15"/>
     </row>
-    <row r="402" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="402" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B402" s="10"/>
       <c r="C402" s="10"/>
       <c r="D402" s="10"/>
@@ -44560,7 +44623,7 @@
       <c r="BS402" s="15"/>
       <c r="BT402" s="15"/>
     </row>
-    <row r="403" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="403" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B403" s="10"/>
       <c r="C403" s="10"/>
       <c r="D403" s="10"/>
@@ -44633,7 +44696,7 @@
       <c r="BS403" s="15"/>
       <c r="BT403" s="15"/>
     </row>
-    <row r="404" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="404" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B404" s="10"/>
       <c r="C404" s="10"/>
       <c r="D404" s="10"/>
@@ -44706,7 +44769,7 @@
       <c r="BS404" s="15"/>
       <c r="BT404" s="15"/>
     </row>
-    <row r="405" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="405" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B405" s="10"/>
       <c r="C405" s="10"/>
       <c r="D405" s="10"/>
@@ -44779,7 +44842,7 @@
       <c r="BS405" s="15"/>
       <c r="BT405" s="15"/>
     </row>
-    <row r="406" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="406" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B406" s="10"/>
       <c r="C406" s="10"/>
       <c r="D406" s="10"/>
@@ -44852,7 +44915,7 @@
       <c r="BS406" s="15"/>
       <c r="BT406" s="15"/>
     </row>
-    <row r="407" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="407" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B407" s="10"/>
       <c r="C407" s="10"/>
       <c r="D407" s="10"/>
@@ -44925,7 +44988,7 @@
       <c r="BS407" s="15"/>
       <c r="BT407" s="15"/>
     </row>
-    <row r="408" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="408" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B408" s="10"/>
       <c r="C408" s="10"/>
       <c r="D408" s="10"/>
@@ -44998,7 +45061,7 @@
       <c r="BS408" s="15"/>
       <c r="BT408" s="15"/>
     </row>
-    <row r="409" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="409" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B409" s="10"/>
       <c r="C409" s="10"/>
       <c r="D409" s="10"/>
@@ -45071,7 +45134,7 @@
       <c r="BS409" s="15"/>
       <c r="BT409" s="15"/>
     </row>
-    <row r="410" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="410" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B410" s="10"/>
       <c r="C410" s="10"/>
       <c r="D410" s="10"/>
@@ -45144,7 +45207,7 @@
       <c r="BS410" s="15"/>
       <c r="BT410" s="15"/>
     </row>
-    <row r="411" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="411" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B411" s="10"/>
       <c r="C411" s="10"/>
       <c r="D411" s="10"/>
@@ -45217,7 +45280,7 @@
       <c r="BS411" s="15"/>
       <c r="BT411" s="15"/>
     </row>
-    <row r="412" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="412" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B412" s="10"/>
       <c r="C412" s="10"/>
       <c r="D412" s="10"/>
@@ -45290,7 +45353,7 @@
       <c r="BS412" s="15"/>
       <c r="BT412" s="15"/>
     </row>
-    <row r="413" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="413" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B413" s="10"/>
       <c r="C413" s="10"/>
       <c r="D413" s="10"/>
@@ -45363,7 +45426,7 @@
       <c r="BS413" s="15"/>
       <c r="BT413" s="15"/>
     </row>
-    <row r="414" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="414" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B414" s="10"/>
       <c r="C414" s="10"/>
       <c r="D414" s="10"/>
@@ -45436,7 +45499,7 @@
       <c r="BS414" s="15"/>
       <c r="BT414" s="15"/>
     </row>
-    <row r="415" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="415" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B415" s="10"/>
       <c r="C415" s="10"/>
       <c r="D415" s="10"/>
@@ -45509,7 +45572,7 @@
       <c r="BS415" s="15"/>
       <c r="BT415" s="15"/>
     </row>
-    <row r="416" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="416" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B416" s="10"/>
       <c r="C416" s="10"/>
       <c r="D416" s="10"/>
@@ -45582,7 +45645,7 @@
       <c r="BS416" s="15"/>
       <c r="BT416" s="15"/>
     </row>
-    <row r="417" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="417" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B417" s="10"/>
       <c r="C417" s="10"/>
       <c r="D417" s="10"/>
@@ -45655,7 +45718,7 @@
       <c r="BS417" s="15"/>
       <c r="BT417" s="15"/>
     </row>
-    <row r="418" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="418" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B418" s="10"/>
       <c r="C418" s="10"/>
       <c r="D418" s="10"/>
@@ -45728,7 +45791,7 @@
       <c r="BS418" s="15"/>
       <c r="BT418" s="15"/>
     </row>
-    <row r="419" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="419" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B419" s="10"/>
       <c r="C419" s="10"/>
       <c r="D419" s="10"/>
@@ -45801,7 +45864,7 @@
       <c r="BS419" s="15"/>
       <c r="BT419" s="15"/>
     </row>
-    <row r="420" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="420" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B420" s="10"/>
       <c r="C420" s="10"/>
       <c r="D420" s="10"/>
@@ -45874,7 +45937,7 @@
       <c r="BS420" s="15"/>
       <c r="BT420" s="15"/>
     </row>
-    <row r="421" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="421" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B421" s="10"/>
       <c r="C421" s="10"/>
       <c r="D421" s="10"/>
@@ -45947,7 +46010,7 @@
       <c r="BS421" s="15"/>
       <c r="BT421" s="15"/>
     </row>
-    <row r="422" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="422" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B422" s="10"/>
       <c r="C422" s="10"/>
       <c r="D422" s="10"/>
@@ -46020,7 +46083,7 @@
       <c r="BS422" s="15"/>
       <c r="BT422" s="15"/>
     </row>
-    <row r="423" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="423" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B423" s="10"/>
       <c r="C423" s="10"/>
       <c r="D423" s="10"/>
@@ -46093,7 +46156,7 @@
       <c r="BS423" s="15"/>
       <c r="BT423" s="15"/>
     </row>
-    <row r="424" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="424" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B424" s="10"/>
       <c r="C424" s="10"/>
       <c r="D424" s="10"/>
@@ -46154,7 +46217,7 @@
       <c r="BS424" s="15"/>
       <c r="BT424" s="15"/>
     </row>
-    <row r="425" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="425" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B425" s="10"/>
       <c r="C425" s="10"/>
       <c r="D425" s="10"/>
@@ -46215,7 +46278,7 @@
       <c r="BS425" s="15"/>
       <c r="BT425" s="15"/>
     </row>
-    <row r="426" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="426" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B426" s="10"/>
       <c r="C426" s="10"/>
       <c r="D426" s="10"/>
@@ -46276,7 +46339,7 @@
       <c r="BS426" s="15"/>
       <c r="BT426" s="15"/>
     </row>
-    <row r="427" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="427" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B427" s="10"/>
       <c r="C427" s="10"/>
       <c r="D427" s="10"/>
@@ -46337,7 +46400,7 @@
       <c r="BS427" s="15"/>
       <c r="BT427" s="15"/>
     </row>
-    <row r="428" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="428" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B428" s="10"/>
       <c r="C428" s="10"/>
       <c r="D428" s="10"/>
@@ -46398,7 +46461,7 @@
       <c r="BS428" s="15"/>
       <c r="BT428" s="15"/>
     </row>
-    <row r="429" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="429" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B429" s="10"/>
       <c r="C429" s="10"/>
       <c r="D429" s="10"/>
@@ -46459,7 +46522,7 @@
       <c r="BS429" s="15"/>
       <c r="BT429" s="15"/>
     </row>
-    <row r="430" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="430" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B430" s="10"/>
       <c r="C430" s="10"/>
       <c r="D430" s="10"/>
@@ -46520,7 +46583,7 @@
       <c r="BS430" s="15"/>
       <c r="BT430" s="15"/>
     </row>
-    <row r="431" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="431" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B431" s="10"/>
       <c r="C431" s="10"/>
       <c r="D431" s="10"/>
@@ -46581,7 +46644,7 @@
       <c r="BS431" s="15"/>
       <c r="BT431" s="15"/>
     </row>
-    <row r="432" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="432" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B432" s="10"/>
       <c r="C432" s="10"/>
       <c r="D432" s="10"/>
@@ -46642,7 +46705,7 @@
       <c r="BS432" s="15"/>
       <c r="BT432" s="15"/>
     </row>
-    <row r="433" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="433" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B433" s="10"/>
       <c r="C433" s="10"/>
       <c r="D433" s="10"/>
@@ -46703,7 +46766,7 @@
       <c r="BS433" s="15"/>
       <c r="BT433" s="15"/>
     </row>
-    <row r="434" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="434" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B434" s="10"/>
       <c r="C434" s="10"/>
       <c r="D434" s="10"/>
@@ -46764,7 +46827,7 @@
       <c r="BS434" s="15"/>
       <c r="BT434" s="15"/>
     </row>
-    <row r="435" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="435" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B435" s="10"/>
       <c r="C435" s="10"/>
       <c r="D435" s="10"/>
@@ -46825,7 +46888,7 @@
       <c r="BS435" s="15"/>
       <c r="BT435" s="15"/>
     </row>
-    <row r="436" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="436" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B436" s="10"/>
       <c r="C436" s="10"/>
       <c r="D436" s="10"/>
@@ -46886,7 +46949,7 @@
       <c r="BS436" s="15"/>
       <c r="BT436" s="15"/>
     </row>
-    <row r="437" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="437" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B437" s="10"/>
       <c r="C437" s="10"/>
       <c r="D437" s="10"/>
@@ -46947,7 +47010,7 @@
       <c r="BS437" s="15"/>
       <c r="BT437" s="15"/>
     </row>
-    <row r="438" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="438" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B438" s="10"/>
       <c r="C438" s="10"/>
       <c r="D438" s="10"/>
@@ -47008,7 +47071,7 @@
       <c r="BS438" s="15"/>
       <c r="BT438" s="15"/>
     </row>
-    <row r="439" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="439" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B439" s="10"/>
       <c r="C439" s="10"/>
       <c r="D439" s="10"/>
@@ -47069,7 +47132,7 @@
       <c r="BS439" s="15"/>
       <c r="BT439" s="15"/>
     </row>
-    <row r="440" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="440" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B440" s="10"/>
       <c r="C440" s="10"/>
       <c r="D440" s="10"/>
@@ -47150,224 +47213,224 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.83203125" style="103" customWidth="1"/>
-    <col min="2" max="2" width="88.83203125" style="103" customWidth="1"/>
+    <col min="1" max="1" width="28.875" style="103" customWidth="1"/>
+    <col min="2" max="2" width="88.875" style="103" customWidth="1"/>
     <col min="3" max="3" width="11" style="103"/>
     <col min="4" max="24" width="11" style="78"/>
     <col min="25" max="256" width="11" style="103"/>
-    <col min="257" max="257" width="28.33203125" style="103" customWidth="1"/>
+    <col min="257" max="257" width="28.375" style="103" customWidth="1"/>
     <col min="258" max="258" width="80" style="103" customWidth="1"/>
     <col min="259" max="512" width="11" style="103"/>
-    <col min="513" max="513" width="28.33203125" style="103" customWidth="1"/>
+    <col min="513" max="513" width="28.375" style="103" customWidth="1"/>
     <col min="514" max="514" width="80" style="103" customWidth="1"/>
     <col min="515" max="768" width="11" style="103"/>
-    <col min="769" max="769" width="28.33203125" style="103" customWidth="1"/>
+    <col min="769" max="769" width="28.375" style="103" customWidth="1"/>
     <col min="770" max="770" width="80" style="103" customWidth="1"/>
     <col min="771" max="1024" width="11" style="103"/>
-    <col min="1025" max="1025" width="28.33203125" style="103" customWidth="1"/>
+    <col min="1025" max="1025" width="28.375" style="103" customWidth="1"/>
     <col min="1026" max="1026" width="80" style="103" customWidth="1"/>
     <col min="1027" max="1280" width="11" style="103"/>
-    <col min="1281" max="1281" width="28.33203125" style="103" customWidth="1"/>
+    <col min="1281" max="1281" width="28.375" style="103" customWidth="1"/>
     <col min="1282" max="1282" width="80" style="103" customWidth="1"/>
     <col min="1283" max="1536" width="11" style="103"/>
-    <col min="1537" max="1537" width="28.33203125" style="103" customWidth="1"/>
+    <col min="1537" max="1537" width="28.375" style="103" customWidth="1"/>
     <col min="1538" max="1538" width="80" style="103" customWidth="1"/>
     <col min="1539" max="1792" width="11" style="103"/>
-    <col min="1793" max="1793" width="28.33203125" style="103" customWidth="1"/>
+    <col min="1793" max="1793" width="28.375" style="103" customWidth="1"/>
     <col min="1794" max="1794" width="80" style="103" customWidth="1"/>
     <col min="1795" max="2048" width="11" style="103"/>
-    <col min="2049" max="2049" width="28.33203125" style="103" customWidth="1"/>
+    <col min="2049" max="2049" width="28.375" style="103" customWidth="1"/>
     <col min="2050" max="2050" width="80" style="103" customWidth="1"/>
     <col min="2051" max="2304" width="11" style="103"/>
-    <col min="2305" max="2305" width="28.33203125" style="103" customWidth="1"/>
+    <col min="2305" max="2305" width="28.375" style="103" customWidth="1"/>
     <col min="2306" max="2306" width="80" style="103" customWidth="1"/>
     <col min="2307" max="2560" width="11" style="103"/>
-    <col min="2561" max="2561" width="28.33203125" style="103" customWidth="1"/>
+    <col min="2561" max="2561" width="28.375" style="103" customWidth="1"/>
     <col min="2562" max="2562" width="80" style="103" customWidth="1"/>
     <col min="2563" max="2816" width="11" style="103"/>
-    <col min="2817" max="2817" width="28.33203125" style="103" customWidth="1"/>
+    <col min="2817" max="2817" width="28.375" style="103" customWidth="1"/>
     <col min="2818" max="2818" width="80" style="103" customWidth="1"/>
     <col min="2819" max="3072" width="11" style="103"/>
-    <col min="3073" max="3073" width="28.33203125" style="103" customWidth="1"/>
+    <col min="3073" max="3073" width="28.375" style="103" customWidth="1"/>
     <col min="3074" max="3074" width="80" style="103" customWidth="1"/>
     <col min="3075" max="3328" width="11" style="103"/>
-    <col min="3329" max="3329" width="28.33203125" style="103" customWidth="1"/>
+    <col min="3329" max="3329" width="28.375" style="103" customWidth="1"/>
     <col min="3330" max="3330" width="80" style="103" customWidth="1"/>
     <col min="3331" max="3584" width="11" style="103"/>
-    <col min="3585" max="3585" width="28.33203125" style="103" customWidth="1"/>
+    <col min="3585" max="3585" width="28.375" style="103" customWidth="1"/>
     <col min="3586" max="3586" width="80" style="103" customWidth="1"/>
     <col min="3587" max="3840" width="11" style="103"/>
-    <col min="3841" max="3841" width="28.33203125" style="103" customWidth="1"/>
+    <col min="3841" max="3841" width="28.375" style="103" customWidth="1"/>
     <col min="3842" max="3842" width="80" style="103" customWidth="1"/>
     <col min="3843" max="4096" width="11" style="103"/>
-    <col min="4097" max="4097" width="28.33203125" style="103" customWidth="1"/>
+    <col min="4097" max="4097" width="28.375" style="103" customWidth="1"/>
     <col min="4098" max="4098" width="80" style="103" customWidth="1"/>
     <col min="4099" max="4352" width="11" style="103"/>
-    <col min="4353" max="4353" width="28.33203125" style="103" customWidth="1"/>
+    <col min="4353" max="4353" width="28.375" style="103" customWidth="1"/>
     <col min="4354" max="4354" width="80" style="103" customWidth="1"/>
     <col min="4355" max="4608" width="11" style="103"/>
-    <col min="4609" max="4609" width="28.33203125" style="103" customWidth="1"/>
+    <col min="4609" max="4609" width="28.375" style="103" customWidth="1"/>
     <col min="4610" max="4610" width="80" style="103" customWidth="1"/>
     <col min="4611" max="4864" width="11" style="103"/>
-    <col min="4865" max="4865" width="28.33203125" style="103" customWidth="1"/>
+    <col min="4865" max="4865" width="28.375" style="103" customWidth="1"/>
     <col min="4866" max="4866" width="80" style="103" customWidth="1"/>
     <col min="4867" max="5120" width="11" style="103"/>
-    <col min="5121" max="5121" width="28.33203125" style="103" customWidth="1"/>
+    <col min="5121" max="5121" width="28.375" style="103" customWidth="1"/>
     <col min="5122" max="5122" width="80" style="103" customWidth="1"/>
     <col min="5123" max="5376" width="11" style="103"/>
-    <col min="5377" max="5377" width="28.33203125" style="103" customWidth="1"/>
+    <col min="5377" max="5377" width="28.375" style="103" customWidth="1"/>
     <col min="5378" max="5378" width="80" style="103" customWidth="1"/>
     <col min="5379" max="5632" width="11" style="103"/>
-    <col min="5633" max="5633" width="28.33203125" style="103" customWidth="1"/>
+    <col min="5633" max="5633" width="28.375" style="103" customWidth="1"/>
     <col min="5634" max="5634" width="80" style="103" customWidth="1"/>
     <col min="5635" max="5888" width="11" style="103"/>
-    <col min="5889" max="5889" width="28.33203125" style="103" customWidth="1"/>
+    <col min="5889" max="5889" width="28.375" style="103" customWidth="1"/>
     <col min="5890" max="5890" width="80" style="103" customWidth="1"/>
     <col min="5891" max="6144" width="11" style="103"/>
-    <col min="6145" max="6145" width="28.33203125" style="103" customWidth="1"/>
+    <col min="6145" max="6145" width="28.375" style="103" customWidth="1"/>
     <col min="6146" max="6146" width="80" style="103" customWidth="1"/>
     <col min="6147" max="6400" width="11" style="103"/>
-    <col min="6401" max="6401" width="28.33203125" style="103" customWidth="1"/>
+    <col min="6401" max="6401" width="28.375" style="103" customWidth="1"/>
     <col min="6402" max="6402" width="80" style="103" customWidth="1"/>
     <col min="6403" max="6656" width="11" style="103"/>
-    <col min="6657" max="6657" width="28.33203125" style="103" customWidth="1"/>
+    <col min="6657" max="6657" width="28.375" style="103" customWidth="1"/>
     <col min="6658" max="6658" width="80" style="103" customWidth="1"/>
     <col min="6659" max="6912" width="11" style="103"/>
-    <col min="6913" max="6913" width="28.33203125" style="103" customWidth="1"/>
+    <col min="6913" max="6913" width="28.375" style="103" customWidth="1"/>
     <col min="6914" max="6914" width="80" style="103" customWidth="1"/>
     <col min="6915" max="7168" width="11" style="103"/>
-    <col min="7169" max="7169" width="28.33203125" style="103" customWidth="1"/>
+    <col min="7169" max="7169" width="28.375" style="103" customWidth="1"/>
     <col min="7170" max="7170" width="80" style="103" customWidth="1"/>
     <col min="7171" max="7424" width="11" style="103"/>
-    <col min="7425" max="7425" width="28.33203125" style="103" customWidth="1"/>
+    <col min="7425" max="7425" width="28.375" style="103" customWidth="1"/>
     <col min="7426" max="7426" width="80" style="103" customWidth="1"/>
     <col min="7427" max="7680" width="11" style="103"/>
-    <col min="7681" max="7681" width="28.33203125" style="103" customWidth="1"/>
+    <col min="7681" max="7681" width="28.375" style="103" customWidth="1"/>
     <col min="7682" max="7682" width="80" style="103" customWidth="1"/>
     <col min="7683" max="7936" width="11" style="103"/>
-    <col min="7937" max="7937" width="28.33203125" style="103" customWidth="1"/>
+    <col min="7937" max="7937" width="28.375" style="103" customWidth="1"/>
     <col min="7938" max="7938" width="80" style="103" customWidth="1"/>
     <col min="7939" max="8192" width="11" style="103"/>
-    <col min="8193" max="8193" width="28.33203125" style="103" customWidth="1"/>
+    <col min="8193" max="8193" width="28.375" style="103" customWidth="1"/>
     <col min="8194" max="8194" width="80" style="103" customWidth="1"/>
     <col min="8195" max="8448" width="11" style="103"/>
-    <col min="8449" max="8449" width="28.33203125" style="103" customWidth="1"/>
+    <col min="8449" max="8449" width="28.375" style="103" customWidth="1"/>
     <col min="8450" max="8450" width="80" style="103" customWidth="1"/>
     <col min="8451" max="8704" width="11" style="103"/>
-    <col min="8705" max="8705" width="28.33203125" style="103" customWidth="1"/>
+    <col min="8705" max="8705" width="28.375" style="103" customWidth="1"/>
     <col min="8706" max="8706" width="80" style="103" customWidth="1"/>
     <col min="8707" max="8960" width="11" style="103"/>
-    <col min="8961" max="8961" width="28.33203125" style="103" customWidth="1"/>
+    <col min="8961" max="8961" width="28.375" style="103" customWidth="1"/>
     <col min="8962" max="8962" width="80" style="103" customWidth="1"/>
     <col min="8963" max="9216" width="11" style="103"/>
-    <col min="9217" max="9217" width="28.33203125" style="103" customWidth="1"/>
+    <col min="9217" max="9217" width="28.375" style="103" customWidth="1"/>
     <col min="9218" max="9218" width="80" style="103" customWidth="1"/>
     <col min="9219" max="9472" width="11" style="103"/>
-    <col min="9473" max="9473" width="28.33203125" style="103" customWidth="1"/>
+    <col min="9473" max="9473" width="28.375" style="103" customWidth="1"/>
     <col min="9474" max="9474" width="80" style="103" customWidth="1"/>
     <col min="9475" max="9728" width="11" style="103"/>
-    <col min="9729" max="9729" width="28.33203125" style="103" customWidth="1"/>
+    <col min="9729" max="9729" width="28.375" style="103" customWidth="1"/>
     <col min="9730" max="9730" width="80" style="103" customWidth="1"/>
     <col min="9731" max="9984" width="11" style="103"/>
-    <col min="9985" max="9985" width="28.33203125" style="103" customWidth="1"/>
+    <col min="9985" max="9985" width="28.375" style="103" customWidth="1"/>
     <col min="9986" max="9986" width="80" style="103" customWidth="1"/>
     <col min="9987" max="10240" width="11" style="103"/>
-    <col min="10241" max="10241" width="28.33203125" style="103" customWidth="1"/>
+    <col min="10241" max="10241" width="28.375" style="103" customWidth="1"/>
     <col min="10242" max="10242" width="80" style="103" customWidth="1"/>
     <col min="10243" max="10496" width="11" style="103"/>
-    <col min="10497" max="10497" width="28.33203125" style="103" customWidth="1"/>
+    <col min="10497" max="10497" width="28.375" style="103" customWidth="1"/>
     <col min="10498" max="10498" width="80" style="103" customWidth="1"/>
     <col min="10499" max="10752" width="11" style="103"/>
-    <col min="10753" max="10753" width="28.33203125" style="103" customWidth="1"/>
+    <col min="10753" max="10753" width="28.375" style="103" customWidth="1"/>
     <col min="10754" max="10754" width="80" style="103" customWidth="1"/>
     <col min="10755" max="11008" width="11" style="103"/>
-    <col min="11009" max="11009" width="28.33203125" style="103" customWidth="1"/>
+    <col min="11009" max="11009" width="28.375" style="103" customWidth="1"/>
     <col min="11010" max="11010" width="80" style="103" customWidth="1"/>
     <col min="11011" max="11264" width="11" style="103"/>
-    <col min="11265" max="11265" width="28.33203125" style="103" customWidth="1"/>
+    <col min="11265" max="11265" width="28.375" style="103" customWidth="1"/>
     <col min="11266" max="11266" width="80" style="103" customWidth="1"/>
     <col min="11267" max="11520" width="11" style="103"/>
-    <col min="11521" max="11521" width="28.33203125" style="103" customWidth="1"/>
+    <col min="11521" max="11521" width="28.375" style="103" customWidth="1"/>
     <col min="11522" max="11522" width="80" style="103" customWidth="1"/>
     <col min="11523" max="11776" width="11" style="103"/>
-    <col min="11777" max="11777" width="28.33203125" style="103" customWidth="1"/>
+    <col min="11777" max="11777" width="28.375" style="103" customWidth="1"/>
     <col min="11778" max="11778" width="80" style="103" customWidth="1"/>
     <col min="11779" max="12032" width="11" style="103"/>
-    <col min="12033" max="12033" width="28.33203125" style="103" customWidth="1"/>
+    <col min="12033" max="12033" width="28.375" style="103" customWidth="1"/>
     <col min="12034" max="12034" width="80" style="103" customWidth="1"/>
     <col min="12035" max="12288" width="11" style="103"/>
-    <col min="12289" max="12289" width="28.33203125" style="103" customWidth="1"/>
+    <col min="12289" max="12289" width="28.375" style="103" customWidth="1"/>
     <col min="12290" max="12290" width="80" style="103" customWidth="1"/>
     <col min="12291" max="12544" width="11" style="103"/>
-    <col min="12545" max="12545" width="28.33203125" style="103" customWidth="1"/>
+    <col min="12545" max="12545" width="28.375" style="103" customWidth="1"/>
     <col min="12546" max="12546" width="80" style="103" customWidth="1"/>
     <col min="12547" max="12800" width="11" style="103"/>
-    <col min="12801" max="12801" width="28.33203125" style="103" customWidth="1"/>
+    <col min="12801" max="12801" width="28.375" style="103" customWidth="1"/>
     <col min="12802" max="12802" width="80" style="103" customWidth="1"/>
     <col min="12803" max="13056" width="11" style="103"/>
-    <col min="13057" max="13057" width="28.33203125" style="103" customWidth="1"/>
+    <col min="13057" max="13057" width="28.375" style="103" customWidth="1"/>
     <col min="13058" max="13058" width="80" style="103" customWidth="1"/>
     <col min="13059" max="13312" width="11" style="103"/>
-    <col min="13313" max="13313" width="28.33203125" style="103" customWidth="1"/>
+    <col min="13313" max="13313" width="28.375" style="103" customWidth="1"/>
     <col min="13314" max="13314" width="80" style="103" customWidth="1"/>
     <col min="13315" max="13568" width="11" style="103"/>
-    <col min="13569" max="13569" width="28.33203125" style="103" customWidth="1"/>
+    <col min="13569" max="13569" width="28.375" style="103" customWidth="1"/>
     <col min="13570" max="13570" width="80" style="103" customWidth="1"/>
     <col min="13571" max="13824" width="11" style="103"/>
-    <col min="13825" max="13825" width="28.33203125" style="103" customWidth="1"/>
+    <col min="13825" max="13825" width="28.375" style="103" customWidth="1"/>
     <col min="13826" max="13826" width="80" style="103" customWidth="1"/>
     <col min="13827" max="14080" width="11" style="103"/>
-    <col min="14081" max="14081" width="28.33203125" style="103" customWidth="1"/>
+    <col min="14081" max="14081" width="28.375" style="103" customWidth="1"/>
     <col min="14082" max="14082" width="80" style="103" customWidth="1"/>
     <col min="14083" max="14336" width="11" style="103"/>
-    <col min="14337" max="14337" width="28.33203125" style="103" customWidth="1"/>
+    <col min="14337" max="14337" width="28.375" style="103" customWidth="1"/>
     <col min="14338" max="14338" width="80" style="103" customWidth="1"/>
     <col min="14339" max="14592" width="11" style="103"/>
-    <col min="14593" max="14593" width="28.33203125" style="103" customWidth="1"/>
+    <col min="14593" max="14593" width="28.375" style="103" customWidth="1"/>
     <col min="14594" max="14594" width="80" style="103" customWidth="1"/>
     <col min="14595" max="14848" width="11" style="103"/>
-    <col min="14849" max="14849" width="28.33203125" style="103" customWidth="1"/>
+    <col min="14849" max="14849" width="28.375" style="103" customWidth="1"/>
     <col min="14850" max="14850" width="80" style="103" customWidth="1"/>
     <col min="14851" max="15104" width="11" style="103"/>
-    <col min="15105" max="15105" width="28.33203125" style="103" customWidth="1"/>
+    <col min="15105" max="15105" width="28.375" style="103" customWidth="1"/>
     <col min="15106" max="15106" width="80" style="103" customWidth="1"/>
     <col min="15107" max="15360" width="11" style="103"/>
-    <col min="15361" max="15361" width="28.33203125" style="103" customWidth="1"/>
+    <col min="15361" max="15361" width="28.375" style="103" customWidth="1"/>
     <col min="15362" max="15362" width="80" style="103" customWidth="1"/>
     <col min="15363" max="15616" width="11" style="103"/>
-    <col min="15617" max="15617" width="28.33203125" style="103" customWidth="1"/>
+    <col min="15617" max="15617" width="28.375" style="103" customWidth="1"/>
     <col min="15618" max="15618" width="80" style="103" customWidth="1"/>
     <col min="15619" max="15872" width="11" style="103"/>
-    <col min="15873" max="15873" width="28.33203125" style="103" customWidth="1"/>
+    <col min="15873" max="15873" width="28.375" style="103" customWidth="1"/>
     <col min="15874" max="15874" width="80" style="103" customWidth="1"/>
     <col min="15875" max="16128" width="11" style="103"/>
-    <col min="16129" max="16129" width="28.33203125" style="103" customWidth="1"/>
+    <col min="16129" max="16129" width="28.375" style="103" customWidth="1"/>
     <col min="16130" max="16130" width="80" style="103" customWidth="1"/>
     <col min="16131" max="16384" width="11" style="103"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="77" t="s">
         <v>249</v>
       </c>
       <c r="B1" s="78"/>
       <c r="C1" s="78"/>
     </row>
-    <row r="2" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="79"/>
       <c r="B2" s="78"/>
       <c r="C2" s="78"/>
     </row>
-    <row r="3" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="80" t="s">
         <v>127</v>
       </c>
       <c r="B3" s="81"/>
       <c r="C3" s="78"/>
     </row>
-    <row r="4" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="82" t="s">
         <v>128</v>
       </c>
@@ -47376,7 +47439,7 @@
       </c>
       <c r="C4" s="78"/>
     </row>
-    <row r="5" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="82" t="s">
         <v>130</v>
       </c>
@@ -47385,7 +47448,7 @@
       </c>
       <c r="C5" s="78"/>
     </row>
-    <row r="6" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="82" t="s">
         <v>132</v>
       </c>
@@ -47394,7 +47457,7 @@
       </c>
       <c r="C6" s="78"/>
     </row>
-    <row r="7" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="82" t="s">
         <v>134</v>
       </c>
@@ -47403,14 +47466,14 @@
       </c>
       <c r="C7" s="78"/>
     </row>
-    <row r="8" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="84" t="s">
         <v>136</v>
       </c>
       <c r="B8" s="85"/>
       <c r="C8" s="78"/>
     </row>
-    <row r="9" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="82" t="s">
         <v>137</v>
       </c>
@@ -47419,7 +47482,7 @@
       </c>
       <c r="C9" s="78"/>
     </row>
-    <row r="10" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="82" t="s">
         <v>139</v>
       </c>
@@ -47428,7 +47491,7 @@
       </c>
       <c r="C10" s="78"/>
     </row>
-    <row r="11" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="82" t="s">
         <v>141</v>
       </c>
@@ -47437,7 +47500,7 @@
       </c>
       <c r="C11" s="78"/>
     </row>
-    <row r="12" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="82" t="s">
         <v>143</v>
       </c>
@@ -47446,7 +47509,7 @@
       </c>
       <c r="C12" s="78"/>
     </row>
-    <row r="13" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="82" t="s">
         <v>145</v>
       </c>
@@ -47455,7 +47518,7 @@
       </c>
       <c r="C13" s="78"/>
     </row>
-    <row r="14" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="82" t="s">
         <v>147</v>
       </c>
@@ -47464,7 +47527,7 @@
       </c>
       <c r="C14" s="78"/>
     </row>
-    <row r="15" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="82" t="s">
         <v>149</v>
       </c>
@@ -47473,7 +47536,7 @@
       </c>
       <c r="C15" s="78"/>
     </row>
-    <row r="16" spans="1:3" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="82" t="s">
         <v>151</v>
       </c>
@@ -47482,7 +47545,7 @@
       </c>
       <c r="C16" s="78"/>
     </row>
-    <row r="17" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="82" t="s">
         <v>153</v>
       </c>
@@ -47491,7 +47554,7 @@
       </c>
       <c r="C17" s="78"/>
     </row>
-    <row r="18" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="82" t="s">
         <v>155</v>
       </c>
@@ -47500,7 +47563,7 @@
       </c>
       <c r="C18" s="78"/>
     </row>
-    <row r="19" spans="1:3" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="82" t="s">
         <v>157</v>
       </c>
@@ -47509,14 +47572,14 @@
       </c>
       <c r="C19" s="78"/>
     </row>
-    <row r="20" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="84" t="s">
         <v>159</v>
       </c>
       <c r="B20" s="85"/>
       <c r="C20" s="78"/>
     </row>
-    <row r="21" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="82" t="s">
         <v>137</v>
       </c>
@@ -47525,7 +47588,7 @@
       </c>
       <c r="C21" s="78"/>
     </row>
-    <row r="22" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="82" t="s">
         <v>161</v>
       </c>
@@ -47534,7 +47597,7 @@
       </c>
       <c r="C22" s="78"/>
     </row>
-    <row r="23" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="82" t="s">
         <v>163</v>
       </c>
@@ -47543,7 +47606,7 @@
       </c>
       <c r="C23" s="78"/>
     </row>
-    <row r="24" spans="1:3" ht="22" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="82" t="s">
         <v>165</v>
       </c>
@@ -47552,7 +47615,7 @@
       </c>
       <c r="C24" s="78"/>
     </row>
-    <row r="25" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="82" t="s">
         <v>167</v>
       </c>
@@ -47561,7 +47624,7 @@
       </c>
       <c r="C25" s="78"/>
     </row>
-    <row r="26" spans="1:3" ht="52" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="86" t="s">
         <v>169</v>
       </c>
@@ -47570,7 +47633,7 @@
       </c>
       <c r="C26" s="78"/>
     </row>
-    <row r="27" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="88" t="s">
         <v>171</v>
       </c>
@@ -47579,7 +47642,7 @@
       </c>
       <c r="C27" s="78"/>
     </row>
-    <row r="28" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="82" t="s">
         <v>173</v>
       </c>
@@ -47588,7 +47651,7 @@
       </c>
       <c r="C28" s="78"/>
     </row>
-    <row r="29" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="82" t="s">
         <v>175</v>
       </c>
@@ -47597,14 +47660,14 @@
       </c>
       <c r="C29" s="78"/>
     </row>
-    <row r="30" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="84" t="s">
         <v>177</v>
       </c>
       <c r="B30" s="85"/>
       <c r="C30" s="78"/>
     </row>
-    <row r="31" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="82" t="s">
         <v>178</v>
       </c>
@@ -47613,7 +47676,7 @@
       </c>
       <c r="C31" s="78"/>
     </row>
-    <row r="32" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="86" t="s">
         <v>180</v>
       </c>
@@ -47622,7 +47685,7 @@
       </c>
       <c r="C32" s="78"/>
     </row>
-    <row r="33" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="90" t="s">
         <v>182</v>
       </c>
@@ -47631,7 +47694,7 @@
       </c>
       <c r="C33" s="78"/>
     </row>
-    <row r="34" spans="1:3" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="92" t="s">
         <v>184</v>
       </c>
@@ -47640,7 +47703,7 @@
       </c>
       <c r="C34" s="78"/>
     </row>
-    <row r="35" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="94" t="s">
         <v>186</v>
       </c>
@@ -47649,7 +47712,7 @@
       </c>
       <c r="C35" s="78"/>
     </row>
-    <row r="36" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="95" t="s">
         <v>188</v>
       </c>
@@ -47658,7 +47721,7 @@
       </c>
       <c r="C36" s="78"/>
     </row>
-    <row r="37" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="95" t="s">
         <v>190</v>
       </c>
@@ -47667,7 +47730,7 @@
       </c>
       <c r="C37" s="78"/>
     </row>
-    <row r="38" spans="1:3" s="78" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" s="78" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="143" t="s">
         <v>192</v>
       </c>
@@ -47675,19 +47738,19 @@
         <v>193</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="144"/>
       <c r="B39" s="97" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="78" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" s="78" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="145"/>
       <c r="B40" s="98" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A41" s="146" t="s">
         <v>196</v>
       </c>
@@ -47696,35 +47759,35 @@
       </c>
       <c r="C41" s="78"/>
     </row>
-    <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A42" s="147"/>
       <c r="B42" s="93" t="s">
         <v>198</v>
       </c>
       <c r="C42" s="78"/>
     </row>
-    <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A43" s="147"/>
       <c r="B43" s="93" t="s">
         <v>199</v>
       </c>
       <c r="C43" s="78"/>
     </row>
-    <row r="44" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A44" s="147"/>
       <c r="B44" s="93" t="s">
         <v>200</v>
       </c>
       <c r="C44" s="78"/>
     </row>
-    <row r="45" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="148"/>
       <c r="B45" s="99" t="s">
         <v>201</v>
       </c>
       <c r="C45" s="78"/>
     </row>
-    <row r="46" spans="1:3" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="149" t="s">
         <v>202</v>
       </c>
@@ -47732,75 +47795,75 @@
         <v>203</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="150"/>
       <c r="B47" s="100" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="150"/>
       <c r="B48" s="100" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="49" spans="1:2" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="150"/>
       <c r="B49" s="100" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="50" spans="1:2" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="150"/>
       <c r="B50" s="100" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="150"/>
       <c r="B51" s="100" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="52" spans="1:2" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="150"/>
       <c r="B52" s="100" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="150"/>
       <c r="B53" s="100" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="54" spans="1:2" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="150"/>
       <c r="B54" s="100" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="55" spans="1:2" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="150"/>
       <c r="B55" s="100"/>
     </row>
-    <row r="56" spans="1:2" s="78" customFormat="1" ht="2" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" s="78" customFormat="1" ht="2.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="101"/>
       <c r="B56" s="102"/>
     </row>
-    <row r="57" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="58" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="59" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="60" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="61" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="62" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="63" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="64" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="65" s="78" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="66" s="78" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="67" s="78" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="68" s="78" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="69" s="78" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="57" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" s="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" s="78" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A38:A40"/>
@@ -47822,224 +47885,224 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.83203125" style="103" customWidth="1"/>
-    <col min="2" max="2" width="88.83203125" style="103" customWidth="1"/>
+    <col min="1" max="1" width="28.875" style="103" customWidth="1"/>
+    <col min="2" max="2" width="88.875" style="103" customWidth="1"/>
     <col min="3" max="3" width="11" style="103"/>
     <col min="4" max="24" width="11" style="78"/>
     <col min="25" max="256" width="11" style="103"/>
-    <col min="257" max="257" width="28.33203125" style="103" customWidth="1"/>
+    <col min="257" max="257" width="28.375" style="103" customWidth="1"/>
     <col min="258" max="258" width="80" style="103" customWidth="1"/>
     <col min="259" max="512" width="11" style="103"/>
-    <col min="513" max="513" width="28.33203125" style="103" customWidth="1"/>
+    <col min="513" max="513" width="28.375" style="103" customWidth="1"/>
     <col min="514" max="514" width="80" style="103" customWidth="1"/>
     <col min="515" max="768" width="11" style="103"/>
-    <col min="769" max="769" width="28.33203125" style="103" customWidth="1"/>
+    <col min="769" max="769" width="28.375" style="103" customWidth="1"/>
     <col min="770" max="770" width="80" style="103" customWidth="1"/>
     <col min="771" max="1024" width="11" style="103"/>
-    <col min="1025" max="1025" width="28.33203125" style="103" customWidth="1"/>
+    <col min="1025" max="1025" width="28.375" style="103" customWidth="1"/>
     <col min="1026" max="1026" width="80" style="103" customWidth="1"/>
     <col min="1027" max="1280" width="11" style="103"/>
-    <col min="1281" max="1281" width="28.33203125" style="103" customWidth="1"/>
+    <col min="1281" max="1281" width="28.375" style="103" customWidth="1"/>
     <col min="1282" max="1282" width="80" style="103" customWidth="1"/>
     <col min="1283" max="1536" width="11" style="103"/>
-    <col min="1537" max="1537" width="28.33203125" style="103" customWidth="1"/>
+    <col min="1537" max="1537" width="28.375" style="103" customWidth="1"/>
     <col min="1538" max="1538" width="80" style="103" customWidth="1"/>
     <col min="1539" max="1792" width="11" style="103"/>
-    <col min="1793" max="1793" width="28.33203125" style="103" customWidth="1"/>
+    <col min="1793" max="1793" width="28.375" style="103" customWidth="1"/>
     <col min="1794" max="1794" width="80" style="103" customWidth="1"/>
     <col min="1795" max="2048" width="11" style="103"/>
-    <col min="2049" max="2049" width="28.33203125" style="103" customWidth="1"/>
+    <col min="2049" max="2049" width="28.375" style="103" customWidth="1"/>
     <col min="2050" max="2050" width="80" style="103" customWidth="1"/>
     <col min="2051" max="2304" width="11" style="103"/>
-    <col min="2305" max="2305" width="28.33203125" style="103" customWidth="1"/>
+    <col min="2305" max="2305" width="28.375" style="103" customWidth="1"/>
     <col min="2306" max="2306" width="80" style="103" customWidth="1"/>
     <col min="2307" max="2560" width="11" style="103"/>
-    <col min="2561" max="2561" width="28.33203125" style="103" customWidth="1"/>
+    <col min="2561" max="2561" width="28.375" style="103" customWidth="1"/>
     <col min="2562" max="2562" width="80" style="103" customWidth="1"/>
     <col min="2563" max="2816" width="11" style="103"/>
-    <col min="2817" max="2817" width="28.33203125" style="103" customWidth="1"/>
+    <col min="2817" max="2817" width="28.375" style="103" customWidth="1"/>
     <col min="2818" max="2818" width="80" style="103" customWidth="1"/>
     <col min="2819" max="3072" width="11" style="103"/>
-    <col min="3073" max="3073" width="28.33203125" style="103" customWidth="1"/>
+    <col min="3073" max="3073" width="28.375" style="103" customWidth="1"/>
     <col min="3074" max="3074" width="80" style="103" customWidth="1"/>
     <col min="3075" max="3328" width="11" style="103"/>
-    <col min="3329" max="3329" width="28.33203125" style="103" customWidth="1"/>
+    <col min="3329" max="3329" width="28.375" style="103" customWidth="1"/>
     <col min="3330" max="3330" width="80" style="103" customWidth="1"/>
     <col min="3331" max="3584" width="11" style="103"/>
-    <col min="3585" max="3585" width="28.33203125" style="103" customWidth="1"/>
+    <col min="3585" max="3585" width="28.375" style="103" customWidth="1"/>
     <col min="3586" max="3586" width="80" style="103" customWidth="1"/>
     <col min="3587" max="3840" width="11" style="103"/>
-    <col min="3841" max="3841" width="28.33203125" style="103" customWidth="1"/>
+    <col min="3841" max="3841" width="28.375" style="103" customWidth="1"/>
     <col min="3842" max="3842" width="80" style="103" customWidth="1"/>
     <col min="3843" max="4096" width="11" style="103"/>
-    <col min="4097" max="4097" width="28.33203125" style="103" customWidth="1"/>
+    <col min="4097" max="4097" width="28.375" style="103" customWidth="1"/>
     <col min="4098" max="4098" width="80" style="103" customWidth="1"/>
     <col min="4099" max="4352" width="11" style="103"/>
-    <col min="4353" max="4353" width="28.33203125" style="103" customWidth="1"/>
+    <col min="4353" max="4353" width="28.375" style="103" customWidth="1"/>
     <col min="4354" max="4354" width="80" style="103" customWidth="1"/>
     <col min="4355" max="4608" width="11" style="103"/>
-    <col min="4609" max="4609" width="28.33203125" style="103" customWidth="1"/>
+    <col min="4609" max="4609" width="28.375" style="103" customWidth="1"/>
     <col min="4610" max="4610" width="80" style="103" customWidth="1"/>
     <col min="4611" max="4864" width="11" style="103"/>
-    <col min="4865" max="4865" width="28.33203125" style="103" customWidth="1"/>
+    <col min="4865" max="4865" width="28.375" style="103" customWidth="1"/>
     <col min="4866" max="4866" width="80" style="103" customWidth="1"/>
     <col min="4867" max="5120" width="11" style="103"/>
-    <col min="5121" max="5121" width="28.33203125" style="103" customWidth="1"/>
+    <col min="5121" max="5121" width="28.375" style="103" customWidth="1"/>
     <col min="5122" max="5122" width="80" style="103" customWidth="1"/>
     <col min="5123" max="5376" width="11" style="103"/>
-    <col min="5377" max="5377" width="28.33203125" style="103" customWidth="1"/>
+    <col min="5377" max="5377" width="28.375" style="103" customWidth="1"/>
     <col min="5378" max="5378" width="80" style="103" customWidth="1"/>
     <col min="5379" max="5632" width="11" style="103"/>
-    <col min="5633" max="5633" width="28.33203125" style="103" customWidth="1"/>
+    <col min="5633" max="5633" width="28.375" style="103" customWidth="1"/>
     <col min="5634" max="5634" width="80" style="103" customWidth="1"/>
     <col min="5635" max="5888" width="11" style="103"/>
-    <col min="5889" max="5889" width="28.33203125" style="103" customWidth="1"/>
+    <col min="5889" max="5889" width="28.375" style="103" customWidth="1"/>
     <col min="5890" max="5890" width="80" style="103" customWidth="1"/>
     <col min="5891" max="6144" width="11" style="103"/>
-    <col min="6145" max="6145" width="28.33203125" style="103" customWidth="1"/>
+    <col min="6145" max="6145" width="28.375" style="103" customWidth="1"/>
     <col min="6146" max="6146" width="80" style="103" customWidth="1"/>
     <col min="6147" max="6400" width="11" style="103"/>
-    <col min="6401" max="6401" width="28.33203125" style="103" customWidth="1"/>
+    <col min="6401" max="6401" width="28.375" style="103" customWidth="1"/>
     <col min="6402" max="6402" width="80" style="103" customWidth="1"/>
     <col min="6403" max="6656" width="11" style="103"/>
-    <col min="6657" max="6657" width="28.33203125" style="103" customWidth="1"/>
+    <col min="6657" max="6657" width="28.375" style="103" customWidth="1"/>
     <col min="6658" max="6658" width="80" style="103" customWidth="1"/>
     <col min="6659" max="6912" width="11" style="103"/>
-    <col min="6913" max="6913" width="28.33203125" style="103" customWidth="1"/>
+    <col min="6913" max="6913" width="28.375" style="103" customWidth="1"/>
     <col min="6914" max="6914" width="80" style="103" customWidth="1"/>
     <col min="6915" max="7168" width="11" style="103"/>
-    <col min="7169" max="7169" width="28.33203125" style="103" customWidth="1"/>
+    <col min="7169" max="7169" width="28.375" style="103" customWidth="1"/>
     <col min="7170" max="7170" width="80" style="103" customWidth="1"/>
     <col min="7171" max="7424" width="11" style="103"/>
-    <col min="7425" max="7425" width="28.33203125" style="103" customWidth="1"/>
+    <col min="7425" max="7425" width="28.375" style="103" customWidth="1"/>
     <col min="7426" max="7426" width="80" style="103" customWidth="1"/>
     <col min="7427" max="7680" width="11" style="103"/>
-    <col min="7681" max="7681" width="28.33203125" style="103" customWidth="1"/>
+    <col min="7681" max="7681" width="28.375" style="103" customWidth="1"/>
     <col min="7682" max="7682" width="80" style="103" customWidth="1"/>
     <col min="7683" max="7936" width="11" style="103"/>
-    <col min="7937" max="7937" width="28.33203125" style="103" customWidth="1"/>
+    <col min="7937" max="7937" width="28.375" style="103" customWidth="1"/>
     <col min="7938" max="7938" width="80" style="103" customWidth="1"/>
     <col min="7939" max="8192" width="11" style="103"/>
-    <col min="8193" max="8193" width="28.33203125" style="103" customWidth="1"/>
+    <col min="8193" max="8193" width="28.375" style="103" customWidth="1"/>
     <col min="8194" max="8194" width="80" style="103" customWidth="1"/>
     <col min="8195" max="8448" width="11" style="103"/>
-    <col min="8449" max="8449" width="28.33203125" style="103" customWidth="1"/>
+    <col min="8449" max="8449" width="28.375" style="103" customWidth="1"/>
     <col min="8450" max="8450" width="80" style="103" customWidth="1"/>
     <col min="8451" max="8704" width="11" style="103"/>
-    <col min="8705" max="8705" width="28.33203125" style="103" customWidth="1"/>
+    <col min="8705" max="8705" width="28.375" style="103" customWidth="1"/>
     <col min="8706" max="8706" width="80" style="103" customWidth="1"/>
     <col min="8707" max="8960" width="11" style="103"/>
-    <col min="8961" max="8961" width="28.33203125" style="103" customWidth="1"/>
+    <col min="8961" max="8961" width="28.375" style="103" customWidth="1"/>
     <col min="8962" max="8962" width="80" style="103" customWidth="1"/>
     <col min="8963" max="9216" width="11" style="103"/>
-    <col min="9217" max="9217" width="28.33203125" style="103" customWidth="1"/>
+    <col min="9217" max="9217" width="28.375" style="103" customWidth="1"/>
     <col min="9218" max="9218" width="80" style="103" customWidth="1"/>
     <col min="9219" max="9472" width="11" style="103"/>
-    <col min="9473" max="9473" width="28.33203125" style="103" customWidth="1"/>
+    <col min="9473" max="9473" width="28.375" style="103" customWidth="1"/>
     <col min="9474" max="9474" width="80" style="103" customWidth="1"/>
     <col min="9475" max="9728" width="11" style="103"/>
-    <col min="9729" max="9729" width="28.33203125" style="103" customWidth="1"/>
+    <col min="9729" max="9729" width="28.375" style="103" customWidth="1"/>
     <col min="9730" max="9730" width="80" style="103" customWidth="1"/>
     <col min="9731" max="9984" width="11" style="103"/>
-    <col min="9985" max="9985" width="28.33203125" style="103" customWidth="1"/>
+    <col min="9985" max="9985" width="28.375" style="103" customWidth="1"/>
     <col min="9986" max="9986" width="80" style="103" customWidth="1"/>
     <col min="9987" max="10240" width="11" style="103"/>
-    <col min="10241" max="10241" width="28.33203125" style="103" customWidth="1"/>
+    <col min="10241" max="10241" width="28.375" style="103" customWidth="1"/>
     <col min="10242" max="10242" width="80" style="103" customWidth="1"/>
     <col min="10243" max="10496" width="11" style="103"/>
-    <col min="10497" max="10497" width="28.33203125" style="103" customWidth="1"/>
+    <col min="10497" max="10497" width="28.375" style="103" customWidth="1"/>
     <col min="10498" max="10498" width="80" style="103" customWidth="1"/>
     <col min="10499" max="10752" width="11" style="103"/>
-    <col min="10753" max="10753" width="28.33203125" style="103" customWidth="1"/>
+    <col min="10753" max="10753" width="28.375" style="103" customWidth="1"/>
     <col min="10754" max="10754" width="80" style="103" customWidth="1"/>
     <col min="10755" max="11008" width="11" style="103"/>
-    <col min="11009" max="11009" width="28.33203125" style="103" customWidth="1"/>
+    <col min="11009" max="11009" width="28.375" style="103" customWidth="1"/>
     <col min="11010" max="11010" width="80" style="103" customWidth="1"/>
     <col min="11011" max="11264" width="11" style="103"/>
-    <col min="11265" max="11265" width="28.33203125" style="103" customWidth="1"/>
+    <col min="11265" max="11265" width="28.375" style="103" customWidth="1"/>
     <col min="11266" max="11266" width="80" style="103" customWidth="1"/>
     <col min="11267" max="11520" width="11" style="103"/>
-    <col min="11521" max="11521" width="28.33203125" style="103" customWidth="1"/>
+    <col min="11521" max="11521" width="28.375" style="103" customWidth="1"/>
     <col min="11522" max="11522" width="80" style="103" customWidth="1"/>
     <col min="11523" max="11776" width="11" style="103"/>
-    <col min="11777" max="11777" width="28.33203125" style="103" customWidth="1"/>
+    <col min="11777" max="11777" width="28.375" style="103" customWidth="1"/>
     <col min="11778" max="11778" width="80" style="103" customWidth="1"/>
     <col min="11779" max="12032" width="11" style="103"/>
-    <col min="12033" max="12033" width="28.33203125" style="103" customWidth="1"/>
+    <col min="12033" max="12033" width="28.375" style="103" customWidth="1"/>
     <col min="12034" max="12034" width="80" style="103" customWidth="1"/>
     <col min="12035" max="12288" width="11" style="103"/>
-    <col min="12289" max="12289" width="28.33203125" style="103" customWidth="1"/>
+    <col min="12289" max="12289" width="28.375" style="103" customWidth="1"/>
     <col min="12290" max="12290" width="80" style="103" customWidth="1"/>
     <col min="12291" max="12544" width="11" style="103"/>
-    <col min="12545" max="12545" width="28.33203125" style="103" customWidth="1"/>
+    <col min="12545" max="12545" width="28.375" style="103" customWidth="1"/>
     <col min="12546" max="12546" width="80" style="103" customWidth="1"/>
     <col min="12547" max="12800" width="11" style="103"/>
-    <col min="12801" max="12801" width="28.33203125" style="103" customWidth="1"/>
+    <col min="12801" max="12801" width="28.375" style="103" customWidth="1"/>
     <col min="12802" max="12802" width="80" style="103" customWidth="1"/>
     <col min="12803" max="13056" width="11" style="103"/>
-    <col min="13057" max="13057" width="28.33203125" style="103" customWidth="1"/>
+    <col min="13057" max="13057" width="28.375" style="103" customWidth="1"/>
     <col min="13058" max="13058" width="80" style="103" customWidth="1"/>
     <col min="13059" max="13312" width="11" style="103"/>
-    <col min="13313" max="13313" width="28.33203125" style="103" customWidth="1"/>
+    <col min="13313" max="13313" width="28.375" style="103" customWidth="1"/>
     <col min="13314" max="13314" width="80" style="103" customWidth="1"/>
     <col min="13315" max="13568" width="11" style="103"/>
-    <col min="13569" max="13569" width="28.33203125" style="103" customWidth="1"/>
+    <col min="13569" max="13569" width="28.375" style="103" customWidth="1"/>
     <col min="13570" max="13570" width="80" style="103" customWidth="1"/>
     <col min="13571" max="13824" width="11" style="103"/>
-    <col min="13825" max="13825" width="28.33203125" style="103" customWidth="1"/>
+    <col min="13825" max="13825" width="28.375" style="103" customWidth="1"/>
     <col min="13826" max="13826" width="80" style="103" customWidth="1"/>
     <col min="13827" max="14080" width="11" style="103"/>
-    <col min="14081" max="14081" width="28.33203125" style="103" customWidth="1"/>
+    <col min="14081" max="14081" width="28.375" style="103" customWidth="1"/>
     <col min="14082" max="14082" width="80" style="103" customWidth="1"/>
     <col min="14083" max="14336" width="11" style="103"/>
-    <col min="14337" max="14337" width="28.33203125" style="103" customWidth="1"/>
+    <col min="14337" max="14337" width="28.375" style="103" customWidth="1"/>
     <col min="14338" max="14338" width="80" style="103" customWidth="1"/>
     <col min="14339" max="14592" width="11" style="103"/>
-    <col min="14593" max="14593" width="28.33203125" style="103" customWidth="1"/>
+    <col min="14593" max="14593" width="28.375" style="103" customWidth="1"/>
     <col min="14594" max="14594" width="80" style="103" customWidth="1"/>
     <col min="14595" max="14848" width="11" style="103"/>
-    <col min="14849" max="14849" width="28.33203125" style="103" customWidth="1"/>
+    <col min="14849" max="14849" width="28.375" style="103" customWidth="1"/>
     <col min="14850" max="14850" width="80" style="103" customWidth="1"/>
     <col min="14851" max="15104" width="11" style="103"/>
-    <col min="15105" max="15105" width="28.33203125" style="103" customWidth="1"/>
+    <col min="15105" max="15105" width="28.375" style="103" customWidth="1"/>
     <col min="15106" max="15106" width="80" style="103" customWidth="1"/>
     <col min="15107" max="15360" width="11" style="103"/>
-    <col min="15361" max="15361" width="28.33203125" style="103" customWidth="1"/>
+    <col min="15361" max="15361" width="28.375" style="103" customWidth="1"/>
     <col min="15362" max="15362" width="80" style="103" customWidth="1"/>
     <col min="15363" max="15616" width="11" style="103"/>
-    <col min="15617" max="15617" width="28.33203125" style="103" customWidth="1"/>
+    <col min="15617" max="15617" width="28.375" style="103" customWidth="1"/>
     <col min="15618" max="15618" width="80" style="103" customWidth="1"/>
     <col min="15619" max="15872" width="11" style="103"/>
-    <col min="15873" max="15873" width="28.33203125" style="103" customWidth="1"/>
+    <col min="15873" max="15873" width="28.375" style="103" customWidth="1"/>
     <col min="15874" max="15874" width="80" style="103" customWidth="1"/>
     <col min="15875" max="16128" width="11" style="103"/>
-    <col min="16129" max="16129" width="28.33203125" style="103" customWidth="1"/>
+    <col min="16129" max="16129" width="28.375" style="103" customWidth="1"/>
     <col min="16130" max="16130" width="80" style="103" customWidth="1"/>
     <col min="16131" max="16384" width="11" style="103"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="77" t="s">
         <v>250</v>
       </c>
       <c r="B1" s="78"/>
       <c r="C1" s="78"/>
     </row>
-    <row r="2" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="79"/>
       <c r="B2" s="78"/>
       <c r="C2" s="78"/>
     </row>
-    <row r="3" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="80" t="s">
         <v>127</v>
       </c>
       <c r="B3" s="81"/>
       <c r="C3" s="78"/>
     </row>
-    <row r="4" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="82" t="s">
         <v>128</v>
       </c>
@@ -48048,7 +48111,7 @@
       </c>
       <c r="C4" s="78"/>
     </row>
-    <row r="5" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="82" t="s">
         <v>130</v>
       </c>
@@ -48057,7 +48120,7 @@
       </c>
       <c r="C5" s="78"/>
     </row>
-    <row r="6" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="82" t="s">
         <v>132</v>
       </c>
@@ -48066,7 +48129,7 @@
       </c>
       <c r="C6" s="78"/>
     </row>
-    <row r="7" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="82" t="s">
         <v>134</v>
       </c>
@@ -48075,14 +48138,14 @@
       </c>
       <c r="C7" s="78"/>
     </row>
-    <row r="8" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="84" t="s">
         <v>136</v>
       </c>
       <c r="B8" s="85"/>
       <c r="C8" s="78"/>
     </row>
-    <row r="9" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="82" t="s">
         <v>137</v>
       </c>
@@ -48091,7 +48154,7 @@
       </c>
       <c r="C9" s="78"/>
     </row>
-    <row r="10" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="82" t="s">
         <v>139</v>
       </c>
@@ -48100,7 +48163,7 @@
       </c>
       <c r="C10" s="78"/>
     </row>
-    <row r="11" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="82" t="s">
         <v>141</v>
       </c>
@@ -48109,7 +48172,7 @@
       </c>
       <c r="C11" s="78"/>
     </row>
-    <row r="12" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="82" t="s">
         <v>143</v>
       </c>
@@ -48118,7 +48181,7 @@
       </c>
       <c r="C12" s="78"/>
     </row>
-    <row r="13" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="82" t="s">
         <v>145</v>
       </c>
@@ -48127,7 +48190,7 @@
       </c>
       <c r="C13" s="78"/>
     </row>
-    <row r="14" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="82" t="s">
         <v>147</v>
       </c>
@@ -48136,7 +48199,7 @@
       </c>
       <c r="C14" s="78"/>
     </row>
-    <row r="15" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="82" t="s">
         <v>149</v>
       </c>
@@ -48145,7 +48208,7 @@
       </c>
       <c r="C15" s="78"/>
     </row>
-    <row r="16" spans="1:3" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="82" t="s">
         <v>151</v>
       </c>
@@ -48154,7 +48217,7 @@
       </c>
       <c r="C16" s="78"/>
     </row>
-    <row r="17" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="82" t="s">
         <v>153</v>
       </c>
@@ -48163,7 +48226,7 @@
       </c>
       <c r="C17" s="78"/>
     </row>
-    <row r="18" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="82" t="s">
         <v>155</v>
       </c>
@@ -48172,7 +48235,7 @@
       </c>
       <c r="C18" s="78"/>
     </row>
-    <row r="19" spans="1:3" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="82" t="s">
         <v>157</v>
       </c>
@@ -48181,14 +48244,14 @@
       </c>
       <c r="C19" s="78"/>
     </row>
-    <row r="20" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="84" t="s">
         <v>159</v>
       </c>
       <c r="B20" s="85"/>
       <c r="C20" s="78"/>
     </row>
-    <row r="21" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="82" t="s">
         <v>137</v>
       </c>
@@ -48197,7 +48260,7 @@
       </c>
       <c r="C21" s="78"/>
     </row>
-    <row r="22" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="82" t="s">
         <v>161</v>
       </c>
@@ -48206,7 +48269,7 @@
       </c>
       <c r="C22" s="78"/>
     </row>
-    <row r="23" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="82" t="s">
         <v>163</v>
       </c>
@@ -48215,7 +48278,7 @@
       </c>
       <c r="C23" s="78"/>
     </row>
-    <row r="24" spans="1:3" ht="22" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="82" t="s">
         <v>165</v>
       </c>
@@ -48224,7 +48287,7 @@
       </c>
       <c r="C24" s="78"/>
     </row>
-    <row r="25" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="82" t="s">
         <v>167</v>
       </c>
@@ -48233,7 +48296,7 @@
       </c>
       <c r="C25" s="78"/>
     </row>
-    <row r="26" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="86" t="s">
         <v>169</v>
       </c>
@@ -48242,7 +48305,7 @@
       </c>
       <c r="C26" s="78"/>
     </row>
-    <row r="27" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="88" t="s">
         <v>171</v>
       </c>
@@ -48251,7 +48314,7 @@
       </c>
       <c r="C27" s="78"/>
     </row>
-    <row r="28" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="82" t="s">
         <v>173</v>
       </c>
@@ -48260,7 +48323,7 @@
       </c>
       <c r="C28" s="78"/>
     </row>
-    <row r="29" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="82" t="s">
         <v>175</v>
       </c>
@@ -48269,14 +48332,14 @@
       </c>
       <c r="C29" s="78"/>
     </row>
-    <row r="30" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="84" t="s">
         <v>177</v>
       </c>
       <c r="B30" s="85"/>
       <c r="C30" s="78"/>
     </row>
-    <row r="31" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="82" t="s">
         <v>178</v>
       </c>
@@ -48285,7 +48348,7 @@
       </c>
       <c r="C31" s="78"/>
     </row>
-    <row r="32" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="86" t="s">
         <v>180</v>
       </c>
@@ -48294,7 +48357,7 @@
       </c>
       <c r="C32" s="78"/>
     </row>
-    <row r="33" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="90" t="s">
         <v>182</v>
       </c>
@@ -48303,7 +48366,7 @@
       </c>
       <c r="C33" s="78"/>
     </row>
-    <row r="34" spans="1:3" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="92" t="s">
         <v>184</v>
       </c>
@@ -48312,7 +48375,7 @@
       </c>
       <c r="C34" s="78"/>
     </row>
-    <row r="35" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="94" t="s">
         <v>186</v>
       </c>
@@ -48321,7 +48384,7 @@
       </c>
       <c r="C35" s="78"/>
     </row>
-    <row r="36" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="95" t="s">
         <v>188</v>
       </c>
@@ -48330,7 +48393,7 @@
       </c>
       <c r="C36" s="78"/>
     </row>
-    <row r="37" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="95" t="s">
         <v>190</v>
       </c>
@@ -48339,7 +48402,7 @@
       </c>
       <c r="C37" s="78"/>
     </row>
-    <row r="38" spans="1:3" s="78" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" s="78" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="143" t="s">
         <v>192</v>
       </c>
@@ -48347,19 +48410,19 @@
         <v>224</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="144"/>
       <c r="B39" s="97" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="78" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" s="78" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="145"/>
       <c r="B40" s="98" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A41" s="146" t="s">
         <v>196</v>
       </c>
@@ -48368,35 +48431,35 @@
       </c>
       <c r="C41" s="78"/>
     </row>
-    <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A42" s="147"/>
       <c r="B42" s="93" t="s">
         <v>227</v>
       </c>
       <c r="C42" s="78"/>
     </row>
-    <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A43" s="147"/>
       <c r="B43" s="93" t="s">
         <v>198</v>
       </c>
       <c r="C43" s="78"/>
     </row>
-    <row r="44" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A44" s="147"/>
       <c r="B44" s="93" t="s">
         <v>200</v>
       </c>
       <c r="C44" s="78"/>
     </row>
-    <row r="45" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="148"/>
       <c r="B45" s="99" t="s">
         <v>201</v>
       </c>
       <c r="C45" s="78"/>
     </row>
-    <row r="46" spans="1:3" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="149" t="s">
         <v>202</v>
       </c>
@@ -48404,77 +48467,77 @@
         <v>228</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="150"/>
       <c r="B47" s="100" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="150"/>
       <c r="B48" s="100" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="49" spans="1:2" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="150"/>
       <c r="B49" s="100" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="50" spans="1:2" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="150"/>
       <c r="B50" s="100" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="150"/>
       <c r="B51" s="100" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="52" spans="1:2" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="150"/>
       <c r="B52" s="100" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="150"/>
       <c r="B53" s="100" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="54" spans="1:2" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="150"/>
       <c r="B54" s="100" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="55" spans="1:2" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="150"/>
       <c r="B55" s="100" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="56" spans="1:2" s="78" customFormat="1" ht="2" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" s="78" customFormat="1" ht="2.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="101"/>
       <c r="B56" s="102"/>
     </row>
-    <row r="57" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="58" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="59" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="60" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="61" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="62" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="63" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="64" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="65" s="78" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="66" s="78" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="67" s="78" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="68" s="78" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="69" s="78" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="57" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" s="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" s="78" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A38:A40"/>
@@ -48496,224 +48559,224 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.83203125" style="103" customWidth="1"/>
-    <col min="2" max="2" width="88.83203125" style="103" customWidth="1"/>
+    <col min="1" max="1" width="28.875" style="103" customWidth="1"/>
+    <col min="2" max="2" width="88.875" style="103" customWidth="1"/>
     <col min="3" max="3" width="11" style="103"/>
     <col min="4" max="24" width="11" style="78"/>
     <col min="25" max="256" width="11" style="103"/>
-    <col min="257" max="257" width="28.33203125" style="103" customWidth="1"/>
+    <col min="257" max="257" width="28.375" style="103" customWidth="1"/>
     <col min="258" max="258" width="80" style="103" customWidth="1"/>
     <col min="259" max="512" width="11" style="103"/>
-    <col min="513" max="513" width="28.33203125" style="103" customWidth="1"/>
+    <col min="513" max="513" width="28.375" style="103" customWidth="1"/>
     <col min="514" max="514" width="80" style="103" customWidth="1"/>
     <col min="515" max="768" width="11" style="103"/>
-    <col min="769" max="769" width="28.33203125" style="103" customWidth="1"/>
+    <col min="769" max="769" width="28.375" style="103" customWidth="1"/>
     <col min="770" max="770" width="80" style="103" customWidth="1"/>
     <col min="771" max="1024" width="11" style="103"/>
-    <col min="1025" max="1025" width="28.33203125" style="103" customWidth="1"/>
+    <col min="1025" max="1025" width="28.375" style="103" customWidth="1"/>
     <col min="1026" max="1026" width="80" style="103" customWidth="1"/>
     <col min="1027" max="1280" width="11" style="103"/>
-    <col min="1281" max="1281" width="28.33203125" style="103" customWidth="1"/>
+    <col min="1281" max="1281" width="28.375" style="103" customWidth="1"/>
     <col min="1282" max="1282" width="80" style="103" customWidth="1"/>
     <col min="1283" max="1536" width="11" style="103"/>
-    <col min="1537" max="1537" width="28.33203125" style="103" customWidth="1"/>
+    <col min="1537" max="1537" width="28.375" style="103" customWidth="1"/>
     <col min="1538" max="1538" width="80" style="103" customWidth="1"/>
     <col min="1539" max="1792" width="11" style="103"/>
-    <col min="1793" max="1793" width="28.33203125" style="103" customWidth="1"/>
+    <col min="1793" max="1793" width="28.375" style="103" customWidth="1"/>
     <col min="1794" max="1794" width="80" style="103" customWidth="1"/>
     <col min="1795" max="2048" width="11" style="103"/>
-    <col min="2049" max="2049" width="28.33203125" style="103" customWidth="1"/>
+    <col min="2049" max="2049" width="28.375" style="103" customWidth="1"/>
     <col min="2050" max="2050" width="80" style="103" customWidth="1"/>
     <col min="2051" max="2304" width="11" style="103"/>
-    <col min="2305" max="2305" width="28.33203125" style="103" customWidth="1"/>
+    <col min="2305" max="2305" width="28.375" style="103" customWidth="1"/>
     <col min="2306" max="2306" width="80" style="103" customWidth="1"/>
     <col min="2307" max="2560" width="11" style="103"/>
-    <col min="2561" max="2561" width="28.33203125" style="103" customWidth="1"/>
+    <col min="2561" max="2561" width="28.375" style="103" customWidth="1"/>
     <col min="2562" max="2562" width="80" style="103" customWidth="1"/>
     <col min="2563" max="2816" width="11" style="103"/>
-    <col min="2817" max="2817" width="28.33203125" style="103" customWidth="1"/>
+    <col min="2817" max="2817" width="28.375" style="103" customWidth="1"/>
     <col min="2818" max="2818" width="80" style="103" customWidth="1"/>
     <col min="2819" max="3072" width="11" style="103"/>
-    <col min="3073" max="3073" width="28.33203125" style="103" customWidth="1"/>
+    <col min="3073" max="3073" width="28.375" style="103" customWidth="1"/>
     <col min="3074" max="3074" width="80" style="103" customWidth="1"/>
     <col min="3075" max="3328" width="11" style="103"/>
-    <col min="3329" max="3329" width="28.33203125" style="103" customWidth="1"/>
+    <col min="3329" max="3329" width="28.375" style="103" customWidth="1"/>
     <col min="3330" max="3330" width="80" style="103" customWidth="1"/>
     <col min="3331" max="3584" width="11" style="103"/>
-    <col min="3585" max="3585" width="28.33203125" style="103" customWidth="1"/>
+    <col min="3585" max="3585" width="28.375" style="103" customWidth="1"/>
     <col min="3586" max="3586" width="80" style="103" customWidth="1"/>
     <col min="3587" max="3840" width="11" style="103"/>
-    <col min="3841" max="3841" width="28.33203125" style="103" customWidth="1"/>
+    <col min="3841" max="3841" width="28.375" style="103" customWidth="1"/>
     <col min="3842" max="3842" width="80" style="103" customWidth="1"/>
     <col min="3843" max="4096" width="11" style="103"/>
-    <col min="4097" max="4097" width="28.33203125" style="103" customWidth="1"/>
+    <col min="4097" max="4097" width="28.375" style="103" customWidth="1"/>
     <col min="4098" max="4098" width="80" style="103" customWidth="1"/>
     <col min="4099" max="4352" width="11" style="103"/>
-    <col min="4353" max="4353" width="28.33203125" style="103" customWidth="1"/>
+    <col min="4353" max="4353" width="28.375" style="103" customWidth="1"/>
     <col min="4354" max="4354" width="80" style="103" customWidth="1"/>
     <col min="4355" max="4608" width="11" style="103"/>
-    <col min="4609" max="4609" width="28.33203125" style="103" customWidth="1"/>
+    <col min="4609" max="4609" width="28.375" style="103" customWidth="1"/>
     <col min="4610" max="4610" width="80" style="103" customWidth="1"/>
     <col min="4611" max="4864" width="11" style="103"/>
-    <col min="4865" max="4865" width="28.33203125" style="103" customWidth="1"/>
+    <col min="4865" max="4865" width="28.375" style="103" customWidth="1"/>
     <col min="4866" max="4866" width="80" style="103" customWidth="1"/>
     <col min="4867" max="5120" width="11" style="103"/>
-    <col min="5121" max="5121" width="28.33203125" style="103" customWidth="1"/>
+    <col min="5121" max="5121" width="28.375" style="103" customWidth="1"/>
     <col min="5122" max="5122" width="80" style="103" customWidth="1"/>
     <col min="5123" max="5376" width="11" style="103"/>
-    <col min="5377" max="5377" width="28.33203125" style="103" customWidth="1"/>
+    <col min="5377" max="5377" width="28.375" style="103" customWidth="1"/>
     <col min="5378" max="5378" width="80" style="103" customWidth="1"/>
     <col min="5379" max="5632" width="11" style="103"/>
-    <col min="5633" max="5633" width="28.33203125" style="103" customWidth="1"/>
+    <col min="5633" max="5633" width="28.375" style="103" customWidth="1"/>
     <col min="5634" max="5634" width="80" style="103" customWidth="1"/>
     <col min="5635" max="5888" width="11" style="103"/>
-    <col min="5889" max="5889" width="28.33203125" style="103" customWidth="1"/>
+    <col min="5889" max="5889" width="28.375" style="103" customWidth="1"/>
     <col min="5890" max="5890" width="80" style="103" customWidth="1"/>
     <col min="5891" max="6144" width="11" style="103"/>
-    <col min="6145" max="6145" width="28.33203125" style="103" customWidth="1"/>
+    <col min="6145" max="6145" width="28.375" style="103" customWidth="1"/>
     <col min="6146" max="6146" width="80" style="103" customWidth="1"/>
     <col min="6147" max="6400" width="11" style="103"/>
-    <col min="6401" max="6401" width="28.33203125" style="103" customWidth="1"/>
+    <col min="6401" max="6401" width="28.375" style="103" customWidth="1"/>
     <col min="6402" max="6402" width="80" style="103" customWidth="1"/>
     <col min="6403" max="6656" width="11" style="103"/>
-    <col min="6657" max="6657" width="28.33203125" style="103" customWidth="1"/>
+    <col min="6657" max="6657" width="28.375" style="103" customWidth="1"/>
     <col min="6658" max="6658" width="80" style="103" customWidth="1"/>
     <col min="6659" max="6912" width="11" style="103"/>
-    <col min="6913" max="6913" width="28.33203125" style="103" customWidth="1"/>
+    <col min="6913" max="6913" width="28.375" style="103" customWidth="1"/>
     <col min="6914" max="6914" width="80" style="103" customWidth="1"/>
     <col min="6915" max="7168" width="11" style="103"/>
-    <col min="7169" max="7169" width="28.33203125" style="103" customWidth="1"/>
+    <col min="7169" max="7169" width="28.375" style="103" customWidth="1"/>
     <col min="7170" max="7170" width="80" style="103" customWidth="1"/>
     <col min="7171" max="7424" width="11" style="103"/>
-    <col min="7425" max="7425" width="28.33203125" style="103" customWidth="1"/>
+    <col min="7425" max="7425" width="28.375" style="103" customWidth="1"/>
     <col min="7426" max="7426" width="80" style="103" customWidth="1"/>
     <col min="7427" max="7680" width="11" style="103"/>
-    <col min="7681" max="7681" width="28.33203125" style="103" customWidth="1"/>
+    <col min="7681" max="7681" width="28.375" style="103" customWidth="1"/>
     <col min="7682" max="7682" width="80" style="103" customWidth="1"/>
     <col min="7683" max="7936" width="11" style="103"/>
-    <col min="7937" max="7937" width="28.33203125" style="103" customWidth="1"/>
+    <col min="7937" max="7937" width="28.375" style="103" customWidth="1"/>
     <col min="7938" max="7938" width="80" style="103" customWidth="1"/>
     <col min="7939" max="8192" width="11" style="103"/>
-    <col min="8193" max="8193" width="28.33203125" style="103" customWidth="1"/>
+    <col min="8193" max="8193" width="28.375" style="103" customWidth="1"/>
     <col min="8194" max="8194" width="80" style="103" customWidth="1"/>
     <col min="8195" max="8448" width="11" style="103"/>
-    <col min="8449" max="8449" width="28.33203125" style="103" customWidth="1"/>
+    <col min="8449" max="8449" width="28.375" style="103" customWidth="1"/>
     <col min="8450" max="8450" width="80" style="103" customWidth="1"/>
     <col min="8451" max="8704" width="11" style="103"/>
-    <col min="8705" max="8705" width="28.33203125" style="103" customWidth="1"/>
+    <col min="8705" max="8705" width="28.375" style="103" customWidth="1"/>
     <col min="8706" max="8706" width="80" style="103" customWidth="1"/>
     <col min="8707" max="8960" width="11" style="103"/>
-    <col min="8961" max="8961" width="28.33203125" style="103" customWidth="1"/>
+    <col min="8961" max="8961" width="28.375" style="103" customWidth="1"/>
     <col min="8962" max="8962" width="80" style="103" customWidth="1"/>
     <col min="8963" max="9216" width="11" style="103"/>
-    <col min="9217" max="9217" width="28.33203125" style="103" customWidth="1"/>
+    <col min="9217" max="9217" width="28.375" style="103" customWidth="1"/>
     <col min="9218" max="9218" width="80" style="103" customWidth="1"/>
     <col min="9219" max="9472" width="11" style="103"/>
-    <col min="9473" max="9473" width="28.33203125" style="103" customWidth="1"/>
+    <col min="9473" max="9473" width="28.375" style="103" customWidth="1"/>
     <col min="9474" max="9474" width="80" style="103" customWidth="1"/>
     <col min="9475" max="9728" width="11" style="103"/>
-    <col min="9729" max="9729" width="28.33203125" style="103" customWidth="1"/>
+    <col min="9729" max="9729" width="28.375" style="103" customWidth="1"/>
     <col min="9730" max="9730" width="80" style="103" customWidth="1"/>
     <col min="9731" max="9984" width="11" style="103"/>
-    <col min="9985" max="9985" width="28.33203125" style="103" customWidth="1"/>
+    <col min="9985" max="9985" width="28.375" style="103" customWidth="1"/>
     <col min="9986" max="9986" width="80" style="103" customWidth="1"/>
     <col min="9987" max="10240" width="11" style="103"/>
-    <col min="10241" max="10241" width="28.33203125" style="103" customWidth="1"/>
+    <col min="10241" max="10241" width="28.375" style="103" customWidth="1"/>
     <col min="10242" max="10242" width="80" style="103" customWidth="1"/>
     <col min="10243" max="10496" width="11" style="103"/>
-    <col min="10497" max="10497" width="28.33203125" style="103" customWidth="1"/>
+    <col min="10497" max="10497" width="28.375" style="103" customWidth="1"/>
     <col min="10498" max="10498" width="80" style="103" customWidth="1"/>
     <col min="10499" max="10752" width="11" style="103"/>
-    <col min="10753" max="10753" width="28.33203125" style="103" customWidth="1"/>
+    <col min="10753" max="10753" width="28.375" style="103" customWidth="1"/>
     <col min="10754" max="10754" width="80" style="103" customWidth="1"/>
     <col min="10755" max="11008" width="11" style="103"/>
-    <col min="11009" max="11009" width="28.33203125" style="103" customWidth="1"/>
+    <col min="11009" max="11009" width="28.375" style="103" customWidth="1"/>
     <col min="11010" max="11010" width="80" style="103" customWidth="1"/>
     <col min="11011" max="11264" width="11" style="103"/>
-    <col min="11265" max="11265" width="28.33203125" style="103" customWidth="1"/>
+    <col min="11265" max="11265" width="28.375" style="103" customWidth="1"/>
     <col min="11266" max="11266" width="80" style="103" customWidth="1"/>
     <col min="11267" max="11520" width="11" style="103"/>
-    <col min="11521" max="11521" width="28.33203125" style="103" customWidth="1"/>
+    <col min="11521" max="11521" width="28.375" style="103" customWidth="1"/>
     <col min="11522" max="11522" width="80" style="103" customWidth="1"/>
     <col min="11523" max="11776" width="11" style="103"/>
-    <col min="11777" max="11777" width="28.33203125" style="103" customWidth="1"/>
+    <col min="11777" max="11777" width="28.375" style="103" customWidth="1"/>
     <col min="11778" max="11778" width="80" style="103" customWidth="1"/>
     <col min="11779" max="12032" width="11" style="103"/>
-    <col min="12033" max="12033" width="28.33203125" style="103" customWidth="1"/>
+    <col min="12033" max="12033" width="28.375" style="103" customWidth="1"/>
     <col min="12034" max="12034" width="80" style="103" customWidth="1"/>
     <col min="12035" max="12288" width="11" style="103"/>
-    <col min="12289" max="12289" width="28.33203125" style="103" customWidth="1"/>
+    <col min="12289" max="12289" width="28.375" style="103" customWidth="1"/>
     <col min="12290" max="12290" width="80" style="103" customWidth="1"/>
     <col min="12291" max="12544" width="11" style="103"/>
-    <col min="12545" max="12545" width="28.33203125" style="103" customWidth="1"/>
+    <col min="12545" max="12545" width="28.375" style="103" customWidth="1"/>
     <col min="12546" max="12546" width="80" style="103" customWidth="1"/>
     <col min="12547" max="12800" width="11" style="103"/>
-    <col min="12801" max="12801" width="28.33203125" style="103" customWidth="1"/>
+    <col min="12801" max="12801" width="28.375" style="103" customWidth="1"/>
     <col min="12802" max="12802" width="80" style="103" customWidth="1"/>
     <col min="12803" max="13056" width="11" style="103"/>
-    <col min="13057" max="13057" width="28.33203125" style="103" customWidth="1"/>
+    <col min="13057" max="13057" width="28.375" style="103" customWidth="1"/>
     <col min="13058" max="13058" width="80" style="103" customWidth="1"/>
     <col min="13059" max="13312" width="11" style="103"/>
-    <col min="13313" max="13313" width="28.33203125" style="103" customWidth="1"/>
+    <col min="13313" max="13313" width="28.375" style="103" customWidth="1"/>
     <col min="13314" max="13314" width="80" style="103" customWidth="1"/>
     <col min="13315" max="13568" width="11" style="103"/>
-    <col min="13569" max="13569" width="28.33203125" style="103" customWidth="1"/>
+    <col min="13569" max="13569" width="28.375" style="103" customWidth="1"/>
     <col min="13570" max="13570" width="80" style="103" customWidth="1"/>
     <col min="13571" max="13824" width="11" style="103"/>
-    <col min="13825" max="13825" width="28.33203125" style="103" customWidth="1"/>
+    <col min="13825" max="13825" width="28.375" style="103" customWidth="1"/>
     <col min="13826" max="13826" width="80" style="103" customWidth="1"/>
     <col min="13827" max="14080" width="11" style="103"/>
-    <col min="14081" max="14081" width="28.33203125" style="103" customWidth="1"/>
+    <col min="14081" max="14081" width="28.375" style="103" customWidth="1"/>
     <col min="14082" max="14082" width="80" style="103" customWidth="1"/>
     <col min="14083" max="14336" width="11" style="103"/>
-    <col min="14337" max="14337" width="28.33203125" style="103" customWidth="1"/>
+    <col min="14337" max="14337" width="28.375" style="103" customWidth="1"/>
     <col min="14338" max="14338" width="80" style="103" customWidth="1"/>
     <col min="14339" max="14592" width="11" style="103"/>
-    <col min="14593" max="14593" width="28.33203125" style="103" customWidth="1"/>
+    <col min="14593" max="14593" width="28.375" style="103" customWidth="1"/>
     <col min="14594" max="14594" width="80" style="103" customWidth="1"/>
     <col min="14595" max="14848" width="11" style="103"/>
-    <col min="14849" max="14849" width="28.33203125" style="103" customWidth="1"/>
+    <col min="14849" max="14849" width="28.375" style="103" customWidth="1"/>
     <col min="14850" max="14850" width="80" style="103" customWidth="1"/>
     <col min="14851" max="15104" width="11" style="103"/>
-    <col min="15105" max="15105" width="28.33203125" style="103" customWidth="1"/>
+    <col min="15105" max="15105" width="28.375" style="103" customWidth="1"/>
     <col min="15106" max="15106" width="80" style="103" customWidth="1"/>
     <col min="15107" max="15360" width="11" style="103"/>
-    <col min="15361" max="15361" width="28.33203125" style="103" customWidth="1"/>
+    <col min="15361" max="15361" width="28.375" style="103" customWidth="1"/>
     <col min="15362" max="15362" width="80" style="103" customWidth="1"/>
     <col min="15363" max="15616" width="11" style="103"/>
-    <col min="15617" max="15617" width="28.33203125" style="103" customWidth="1"/>
+    <col min="15617" max="15617" width="28.375" style="103" customWidth="1"/>
     <col min="15618" max="15618" width="80" style="103" customWidth="1"/>
     <col min="15619" max="15872" width="11" style="103"/>
-    <col min="15873" max="15873" width="28.33203125" style="103" customWidth="1"/>
+    <col min="15873" max="15873" width="28.375" style="103" customWidth="1"/>
     <col min="15874" max="15874" width="80" style="103" customWidth="1"/>
     <col min="15875" max="16128" width="11" style="103"/>
-    <col min="16129" max="16129" width="28.33203125" style="103" customWidth="1"/>
+    <col min="16129" max="16129" width="28.375" style="103" customWidth="1"/>
     <col min="16130" max="16130" width="80" style="103" customWidth="1"/>
     <col min="16131" max="16384" width="11" style="103"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="77" t="s">
         <v>251</v>
       </c>
       <c r="B1" s="78"/>
       <c r="C1" s="78"/>
     </row>
-    <row r="2" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="79"/>
       <c r="B2" s="78"/>
       <c r="C2" s="78"/>
     </row>
-    <row r="3" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="80" t="s">
         <v>127</v>
       </c>
       <c r="B3" s="81"/>
       <c r="C3" s="78"/>
     </row>
-    <row r="4" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="82" t="s">
         <v>128</v>
       </c>
@@ -48722,7 +48785,7 @@
       </c>
       <c r="C4" s="78"/>
     </row>
-    <row r="5" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="82" t="s">
         <v>130</v>
       </c>
@@ -48731,7 +48794,7 @@
       </c>
       <c r="C5" s="78"/>
     </row>
-    <row r="6" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="82" t="s">
         <v>132</v>
       </c>
@@ -48740,7 +48803,7 @@
       </c>
       <c r="C6" s="78"/>
     </row>
-    <row r="7" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="82" t="s">
         <v>134</v>
       </c>
@@ -48749,14 +48812,14 @@
       </c>
       <c r="C7" s="78"/>
     </row>
-    <row r="8" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="84" t="s">
         <v>136</v>
       </c>
       <c r="B8" s="85"/>
       <c r="C8" s="78"/>
     </row>
-    <row r="9" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="82" t="s">
         <v>137</v>
       </c>
@@ -48765,7 +48828,7 @@
       </c>
       <c r="C9" s="78"/>
     </row>
-    <row r="10" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="82" t="s">
         <v>139</v>
       </c>
@@ -48774,7 +48837,7 @@
       </c>
       <c r="C10" s="78"/>
     </row>
-    <row r="11" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="82" t="s">
         <v>141</v>
       </c>
@@ -48783,7 +48846,7 @@
       </c>
       <c r="C11" s="78"/>
     </row>
-    <row r="12" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="82" t="s">
         <v>143</v>
       </c>
@@ -48792,7 +48855,7 @@
       </c>
       <c r="C12" s="78"/>
     </row>
-    <row r="13" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="82" t="s">
         <v>145</v>
       </c>
@@ -48801,7 +48864,7 @@
       </c>
       <c r="C13" s="78"/>
     </row>
-    <row r="14" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="82" t="s">
         <v>147</v>
       </c>
@@ -48810,7 +48873,7 @@
       </c>
       <c r="C14" s="78"/>
     </row>
-    <row r="15" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="82" t="s">
         <v>149</v>
       </c>
@@ -48819,7 +48882,7 @@
       </c>
       <c r="C15" s="78"/>
     </row>
-    <row r="16" spans="1:3" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="82" t="s">
         <v>151</v>
       </c>
@@ -48828,7 +48891,7 @@
       </c>
       <c r="C16" s="78"/>
     </row>
-    <row r="17" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="82" t="s">
         <v>153</v>
       </c>
@@ -48837,7 +48900,7 @@
       </c>
       <c r="C17" s="78"/>
     </row>
-    <row r="18" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="82" t="s">
         <v>155</v>
       </c>
@@ -48846,7 +48909,7 @@
       </c>
       <c r="C18" s="78"/>
     </row>
-    <row r="19" spans="1:3" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="82" t="s">
         <v>157</v>
       </c>
@@ -48855,14 +48918,14 @@
       </c>
       <c r="C19" s="78"/>
     </row>
-    <row r="20" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="84" t="s">
         <v>159</v>
       </c>
       <c r="B20" s="85"/>
       <c r="C20" s="78"/>
     </row>
-    <row r="21" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="82" t="s">
         <v>137</v>
       </c>
@@ -48871,7 +48934,7 @@
       </c>
       <c r="C21" s="78"/>
     </row>
-    <row r="22" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="82" t="s">
         <v>161</v>
       </c>
@@ -48880,7 +48943,7 @@
       </c>
       <c r="C22" s="78"/>
     </row>
-    <row r="23" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="82" t="s">
         <v>163</v>
       </c>
@@ -48889,7 +48952,7 @@
       </c>
       <c r="C23" s="78"/>
     </row>
-    <row r="24" spans="1:3" ht="22" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="82" t="s">
         <v>165</v>
       </c>
@@ -48898,7 +48961,7 @@
       </c>
       <c r="C24" s="78"/>
     </row>
-    <row r="25" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="82" t="s">
         <v>167</v>
       </c>
@@ -48907,7 +48970,7 @@
       </c>
       <c r="C25" s="78"/>
     </row>
-    <row r="26" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="86" t="s">
         <v>169</v>
       </c>
@@ -48916,7 +48979,7 @@
       </c>
       <c r="C26" s="78"/>
     </row>
-    <row r="27" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="88" t="s">
         <v>171</v>
       </c>
@@ -48925,7 +48988,7 @@
       </c>
       <c r="C27" s="78"/>
     </row>
-    <row r="28" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="82" t="s">
         <v>173</v>
       </c>
@@ -48934,7 +48997,7 @@
       </c>
       <c r="C28" s="78"/>
     </row>
-    <row r="29" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="82" t="s">
         <v>175</v>
       </c>
@@ -48943,14 +49006,14 @@
       </c>
       <c r="C29" s="78"/>
     </row>
-    <row r="30" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="84" t="s">
         <v>177</v>
       </c>
       <c r="B30" s="85"/>
       <c r="C30" s="78"/>
     </row>
-    <row r="31" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="82" t="s">
         <v>178</v>
       </c>
@@ -48959,7 +49022,7 @@
       </c>
       <c r="C31" s="78"/>
     </row>
-    <row r="32" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="86" t="s">
         <v>180</v>
       </c>
@@ -48968,7 +49031,7 @@
       </c>
       <c r="C32" s="78"/>
     </row>
-    <row r="33" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="90" t="s">
         <v>182</v>
       </c>
@@ -48977,7 +49040,7 @@
       </c>
       <c r="C33" s="78"/>
     </row>
-    <row r="34" spans="1:3" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="92" t="s">
         <v>184</v>
       </c>
@@ -48986,7 +49049,7 @@
       </c>
       <c r="C34" s="78"/>
     </row>
-    <row r="35" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="94" t="s">
         <v>186</v>
       </c>
@@ -48995,7 +49058,7 @@
       </c>
       <c r="C35" s="78"/>
     </row>
-    <row r="36" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="95" t="s">
         <v>188</v>
       </c>
@@ -49004,7 +49067,7 @@
       </c>
       <c r="C36" s="78"/>
     </row>
-    <row r="37" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="95" t="s">
         <v>190</v>
       </c>
@@ -49013,7 +49076,7 @@
       </c>
       <c r="C37" s="78"/>
     </row>
-    <row r="38" spans="1:3" s="78" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" s="78" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="143" t="s">
         <v>192</v>
       </c>
@@ -49021,19 +49084,19 @@
         <v>237</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="144"/>
       <c r="B39" s="97" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="78" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" s="78" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="145"/>
       <c r="B40" s="98" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A41" s="146" t="s">
         <v>196</v>
       </c>
@@ -49042,35 +49105,35 @@
       </c>
       <c r="C41" s="78"/>
     </row>
-    <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A42" s="147"/>
       <c r="B42" s="93" t="s">
         <v>227</v>
       </c>
       <c r="C42" s="78"/>
     </row>
-    <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A43" s="147"/>
       <c r="B43" s="93" t="s">
         <v>198</v>
       </c>
       <c r="C43" s="78"/>
     </row>
-    <row r="44" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A44" s="147"/>
       <c r="B44" s="93" t="s">
         <v>200</v>
       </c>
       <c r="C44" s="78"/>
     </row>
-    <row r="45" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="148"/>
       <c r="B45" s="99" t="s">
         <v>201</v>
       </c>
       <c r="C45" s="78"/>
     </row>
-    <row r="46" spans="1:3" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="149" t="s">
         <v>202</v>
       </c>
@@ -49078,77 +49141,77 @@
         <v>228</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="150"/>
       <c r="B47" s="100" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="150"/>
       <c r="B48" s="100" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="49" spans="1:2" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="150"/>
       <c r="B49" s="100" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="50" spans="1:2" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="150"/>
       <c r="B50" s="100" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="150"/>
       <c r="B51" s="100" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="52" spans="1:2" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="150"/>
       <c r="B52" s="100" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="150"/>
       <c r="B53" s="100" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="54" spans="1:2" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="150"/>
       <c r="B54" s="100" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="55" spans="1:2" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="150"/>
       <c r="B55" s="100" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="56" spans="1:2" s="78" customFormat="1" ht="2" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" s="78" customFormat="1" ht="2.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="101"/>
       <c r="B56" s="102"/>
     </row>
-    <row r="57" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="58" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="59" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="60" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="61" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="62" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="63" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="64" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="65" s="78" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="66" s="78" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="67" s="78" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="68" s="78" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="69" s="78" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="57" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" s="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" s="78" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A38:A40"/>
